--- a/sriramModel-nelson-atypical-patientID_58-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_58-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.33067149869695</v>
+        <v>11.36045552715024</v>
       </c>
       <c r="C2">
-        <v>11.38041044215002</v>
+        <v>11.33192162721897</v>
       </c>
       <c r="D2">
-        <v>11.328309628811</v>
+        <v>11.32238918191187</v>
       </c>
       <c r="E2">
-        <v>11.37293257726844</v>
+        <v>11.34109537239027</v>
       </c>
       <c r="F2">
-        <v>11.49814100182671</v>
+        <v>11.31801929831497</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.26553392334927</v>
+        <v>11.32606212835539</v>
       </c>
       <c r="C3">
-        <v>11.3633195768268</v>
+        <v>11.26963748844554</v>
       </c>
       <c r="D3">
-        <v>11.26161163770056</v>
+        <v>11.25118875026501</v>
       </c>
       <c r="E3">
-        <v>11.35196426968418</v>
+        <v>11.28758243954913</v>
       </c>
       <c r="F3">
-        <v>11.59080359174059</v>
+        <v>11.24224877897348</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.20454541828762</v>
+        <v>11.29680629845678</v>
       </c>
       <c r="C4">
-        <v>11.34870066179177</v>
+        <v>11.21313192543536</v>
       </c>
       <c r="D4">
-        <v>11.19984938965443</v>
+        <v>11.18635310883591</v>
       </c>
       <c r="E4">
-        <v>11.33701458664619</v>
+        <v>11.23944513509491</v>
       </c>
       <c r="F4">
-        <v>11.6780543696952</v>
+        <v>11.17266386064625</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.14766605763109</v>
+        <v>11.27267440641132</v>
       </c>
       <c r="C5">
-        <v>11.33652739052364</v>
+        <v>11.16238924516176</v>
       </c>
       <c r="D5">
-        <v>11.14296940168149</v>
+        <v>11.12783876104207</v>
       </c>
       <c r="E5">
-        <v>11.32799893973715</v>
+        <v>11.19666726165809</v>
       </c>
       <c r="F5">
-        <v>11.75996175604079</v>
+        <v>11.10924114862679</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.09485772813982</v>
+        <v>11.25365285282983</v>
       </c>
       <c r="C6">
-        <v>11.32677393300674</v>
+        <v>11.11739384855</v>
       </c>
       <c r="D6">
-        <v>11.09092117856658</v>
+        <v>11.07560416362579</v>
       </c>
       <c r="E6">
-        <v>11.32482902713335</v>
+        <v>11.15923262418528</v>
       </c>
       <c r="F6">
-        <v>11.83659589891993</v>
+        <v>11.05195840283502</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.04608398838093</v>
+        <v>11.23972807071349</v>
       </c>
       <c r="C7">
-        <v>11.3194149136449</v>
+        <v>11.07813022747211</v>
       </c>
       <c r="D7">
-        <v>11.04365689866884</v>
+        <v>11.02960954859169</v>
       </c>
       <c r="E7">
-        <v>11.32741302098423</v>
+        <v>11.1271250315295</v>
       </c>
       <c r="F7">
-        <v>11.90802876671844</v>
+        <v>11.00079434725352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.0013099436764</v>
+        <v>11.23088652124413</v>
       </c>
       <c r="C8">
-        <v>11.314425403936</v>
+        <v>11.04458296792334</v>
       </c>
       <c r="D8">
-        <v>11.00113113365867</v>
+        <v>10.98981675221972</v>
       </c>
       <c r="E8">
-        <v>11.33565570164231</v>
+        <v>11.10032831579095</v>
       </c>
       <c r="F8">
-        <v>11.97433421984073</v>
+        <v>10.95572855444577</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.96050212903425</v>
+        <v>11.22711470039555</v>
       </c>
       <c r="C9">
-        <v>11.31178090594147</v>
+        <v>11.0167367510523</v>
       </c>
       <c r="D9">
-        <v>10.96330065592123</v>
+        <v>10.95618906099228</v>
       </c>
       <c r="E9">
-        <v>11.3494585822605</v>
+        <v>11.078826344253</v>
       </c>
       <c r="F9">
-        <v>12.03558810310826</v>
+        <v>10.91674133473953</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.92362838401338</v>
+        <v>11.22839913604241</v>
       </c>
       <c r="C10">
-        <v>11.31145733679606</v>
+        <v>10.99457635372947</v>
       </c>
       <c r="D10">
-        <v>10.93012423135298</v>
+        <v>10.92869109591744</v>
       </c>
       <c r="E10">
-        <v>11.368720008025</v>
+        <v>11.06260302788836</v>
       </c>
       <c r="F10">
-        <v>12.09186833430608</v>
+        <v>10.88381364778067</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.89065775443605</v>
+        <v>11.23472638628015</v>
       </c>
       <c r="C11">
-        <v>11.31343101359049</v>
+        <v>10.97808665117998</v>
       </c>
       <c r="D11">
-        <v>10.90156243533679</v>
+        <v>10.90728871029468</v>
       </c>
       <c r="E11">
-        <v>11.39333513668715</v>
+        <v>11.05164233302317</v>
       </c>
       <c r="F11">
-        <v>12.14325498076987</v>
+        <v>10.85692702941616</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.86156041176236</v>
+        <v>11.24608303813035</v>
       </c>
       <c r="C12">
-        <v>11.31767863904612</v>
+        <v>10.96725262066259</v>
       </c>
       <c r="D12">
-        <v>10.87757749713533</v>
+        <v>10.89194889663943</v>
       </c>
       <c r="E12">
-        <v>11.423196150366</v>
+        <v>11.04592829407223</v>
       </c>
       <c r="F12">
-        <v>12.18983033611711</v>
+        <v>10.83606353903213</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.83630757242188</v>
+        <v>11.26245570634469</v>
       </c>
       <c r="C13">
-        <v>11.32417728445681</v>
+        <v>10.9620593445011</v>
       </c>
       <c r="D13">
-        <v>10.85813316624955</v>
+        <v>10.88263970361528</v>
       </c>
       <c r="E13">
-        <v>11.4581922798767</v>
+        <v>11.04544502190353</v>
       </c>
       <c r="F13">
-        <v>12.23167899061861</v>
+        <v>10.82120571006844</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.81487142104568</v>
+        <v>11.28383103155286</v>
       </c>
       <c r="C14">
-        <v>11.33290438160713</v>
+        <v>10.96249201607721</v>
       </c>
       <c r="D14">
-        <v>10.84319458478797</v>
+        <v>10.87933016614739</v>
       </c>
       <c r="E14">
-        <v>11.49820979318488</v>
+        <v>11.05017672255688</v>
       </c>
       <c r="F14">
-        <v>12.26888790284885</v>
+        <v>10.81233650553455</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.7972250348581</v>
+        <v>11.31019567753097</v>
       </c>
       <c r="C15">
-        <v>11.34383770557591</v>
+        <v>10.96853594477092</v>
       </c>
       <c r="D15">
-        <v>10.83272815729767</v>
+        <v>10.88199024700905</v>
       </c>
       <c r="E15">
-        <v>11.54313199831189</v>
+        <v>11.06010770979672</v>
       </c>
       <c r="F15">
-        <v>12.30154644076838</v>
+        <v>10.80943928179288</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.78334232053088</v>
+        <v>11.34153632875402</v>
       </c>
       <c r="C16">
-        <v>11.35695535543207</v>
+        <v>10.98017655991422</v>
       </c>
       <c r="D16">
-        <v>10.82670142664516</v>
+        <v>10.89059078967127</v>
       </c>
       <c r="E16">
-        <v>11.59283927199468</v>
+        <v>11.07522241347859</v>
       </c>
       <c r="F16">
-        <v>12.32974643806216</v>
+        <v>10.81249776452681</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.77319794788768</v>
+        <v>11.37783968713911</v>
       </c>
       <c r="C17">
-        <v>11.372235736005</v>
+        <v>10.99739941525161</v>
       </c>
       <c r="D17">
-        <v>10.8250829779257</v>
+        <v>10.90510346572986</v>
       </c>
       <c r="E17">
-        <v>11.6472090720746</v>
+        <v>11.09550539061982</v>
       </c>
       <c r="F17">
-        <v>12.35358222440231</v>
+        <v>10.82149602677021</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.76676729579172</v>
+        <v>11.41909246631616</v>
       </c>
       <c r="C18">
-        <v>11.38965754575204</v>
+        <v>11.02019019436299</v>
       </c>
       <c r="D18">
-        <v>10.8278423345508</v>
+        <v>10.92550073661106</v>
       </c>
       <c r="E18">
-        <v>11.70611592118165</v>
+        <v>11.12094133836961</v>
       </c>
       <c r="F18">
-        <v>12.37315064408257</v>
+        <v>10.83641847053342</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.76402640585712</v>
+        <v>11.46528138702286</v>
       </c>
       <c r="C19">
-        <v>11.40919976223165</v>
+        <v>11.04853471526731</v>
       </c>
       <c r="D19">
-        <v>10.8349498633875</v>
+        <v>10.95175581707582</v>
       </c>
       <c r="E19">
-        <v>11.76943137870355</v>
+        <v>11.15151510549483</v>
       </c>
       <c r="F19">
-        <v>12.38855109090338</v>
+        <v>10.85724981175192</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.76495191579633</v>
+        <v>11.51639317151611</v>
       </c>
       <c r="C20">
-        <v>11.43084162180681</v>
+        <v>11.08241893449074</v>
       </c>
       <c r="D20">
-        <v>10.84637667605196</v>
+        <v>10.98384264342868</v>
       </c>
       <c r="E20">
-        <v>11.83702401306271</v>
+        <v>11.18721170232345</v>
       </c>
       <c r="F20">
-        <v>12.39988546013151</v>
+        <v>10.88397506483296</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.76952102346404</v>
+        <v>11.57241453553601</v>
       </c>
       <c r="C21">
-        <v>11.45456259925572</v>
+        <v>11.1218289501915</v>
       </c>
       <c r="D21">
-        <v>10.86209452555532</v>
+        <v>11.02173584492668</v>
       </c>
       <c r="E21">
-        <v>11.90875937380831</v>
+        <v>11.22801630959531</v>
       </c>
       <c r="F21">
-        <v>12.40725812596096</v>
+        <v>10.91657953222819</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.77771142832585</v>
+        <v>11.63333218115152</v>
       </c>
       <c r="C22">
-        <v>11.48034238641629</v>
+        <v>11.16675100709925</v>
       </c>
       <c r="D22">
-        <v>10.8820757118528</v>
+        <v>11.0654107176929</v>
       </c>
       <c r="E22">
-        <v>11.98449995814597</v>
+        <v>11.2739142895291</v>
       </c>
       <c r="F22">
-        <v>12.41077586983034</v>
+        <v>10.95504878613984</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.78950128360045</v>
+        <v>11.69913278783693</v>
       </c>
       <c r="C23">
-        <v>11.50816086969533</v>
+        <v>11.21717149667872</v>
       </c>
       <c r="D23">
-        <v>10.9062929641353</v>
+        <v>11.11484320063897</v>
       </c>
       <c r="E23">
-        <v>12.06410517225718</v>
+        <v>11.32489119091805</v>
       </c>
       <c r="F23">
-        <v>12.41054777939905</v>
+        <v>10.99936867636095</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.80486914945493</v>
+        <v>11.76980300227009</v>
       </c>
       <c r="C24">
-        <v>11.53799810658895</v>
+        <v>11.27307695926968</v>
       </c>
       <c r="D24">
-        <v>10.9347193666912</v>
+        <v>11.17000985304502</v>
       </c>
       <c r="E24">
-        <v>12.14743128428658</v>
+        <v>11.38093275715467</v>
       </c>
       <c r="F24">
-        <v>12.40668512916185</v>
+        <v>11.04952530478795</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.82379394483406</v>
+        <v>11.84532942580598</v>
       </c>
       <c r="C25">
-        <v>11.56983429924331</v>
+        <v>11.33445408610468</v>
       </c>
       <c r="D25">
-        <v>10.96732821161171</v>
+        <v>11.23088783341874</v>
       </c>
       <c r="E25">
-        <v>12.23433139626364</v>
+        <v>11.44202493293149</v>
       </c>
       <c r="F25">
-        <v>12.39930123940113</v>
+        <v>11.10550503496066</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10.84625489770674</v>
+        <v>11.9256986015576</v>
       </c>
       <c r="C26">
-        <v>11.60364976420267</v>
+        <v>11.40128971648079</v>
       </c>
       <c r="D26">
-        <v>11.00409289677804</v>
+        <v>11.29745487939096</v>
       </c>
       <c r="E26">
-        <v>12.32465538155621</v>
+        <v>11.50815386820403</v>
       </c>
       <c r="F26">
-        <v>12.38851125728679</v>
+        <v>11.16729447387224</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10.87223149802459</v>
+        <v>12.01089700074052</v>
       </c>
       <c r="C27">
-        <v>11.63942490485108</v>
+        <v>11.47357083740252</v>
       </c>
       <c r="D27">
-        <v>11.04498678400183</v>
+        <v>11.36968928826454</v>
       </c>
       <c r="E27">
-        <v>12.41824986246146</v>
+        <v>11.57930592237966</v>
       </c>
       <c r="F27">
-        <v>12.37443191310559</v>
+        <v>11.23488046954943</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10.90170344308243</v>
+        <v>12.10091100474855</v>
       </c>
       <c r="C28">
-        <v>11.67714015969566</v>
+        <v>11.55128458210263</v>
       </c>
       <c r="D28">
-        <v>11.08998306005266</v>
+        <v>11.44756989778535</v>
       </c>
       <c r="E28">
-        <v>12.5149581618153</v>
+        <v>11.65546766718319</v>
       </c>
       <c r="F28">
-        <v>12.35718123084269</v>
+        <v>11.30825009969375</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10.93465058711896</v>
+        <v>12.19572688710499</v>
       </c>
       <c r="C29">
-        <v>11.7167759885588</v>
+        <v>11.63441822353324</v>
       </c>
       <c r="D29">
-        <v>11.13905458286238</v>
+        <v>11.53107606692007</v>
       </c>
       <c r="E29">
-        <v>12.61462028064923</v>
+        <v>11.73662588856026</v>
       </c>
       <c r="F29">
-        <v>12.33687822489661</v>
+        <v>11.38739066572382</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10.97105287786673</v>
+        <v>12.29533079340323</v>
       </c>
       <c r="C30">
-        <v>11.75831278827533</v>
+        <v>11.7229591700939</v>
       </c>
       <c r="D30">
-        <v>11.19217372059638</v>
+        <v>11.6201876564179</v>
       </c>
       <c r="E30">
-        <v>12.71707285703478</v>
+        <v>11.82276758547614</v>
       </c>
       <c r="F30">
-        <v>12.31364246488275</v>
+        <v>11.47228968123814</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>11.01089029946094</v>
+        <v>12.39970871883073</v>
       </c>
       <c r="C31">
-        <v>11.80173088286409</v>
+        <v>11.81689496013786</v>
       </c>
       <c r="D31">
-        <v>11.24931214789907</v>
+        <v>11.71488500896785</v>
       </c>
       <c r="E31">
-        <v>12.82214915307209</v>
+        <v>11.91387996897415</v>
       </c>
       <c r="F31">
-        <v>12.287593660508</v>
+        <v>11.56293486344283</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>11.05414280477162</v>
+        <v>12.50884648127999</v>
       </c>
       <c r="C32">
-        <v>11.84701041963195</v>
+        <v>11.91621325023421</v>
       </c>
       <c r="D32">
-        <v>11.31044063920609</v>
+        <v>11.81514892872587</v>
       </c>
       <c r="E32">
-        <v>12.92967903934602</v>
+        <v>12.00995046068796</v>
       </c>
       <c r="F32">
-        <v>12.2588511947447</v>
+        <v>11.65931412314784</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>11.10079023562927</v>
+        <v>12.62272969326205</v>
       </c>
       <c r="C33">
-        <v>11.89413134179494</v>
+        <v>12.02090180643125</v>
       </c>
       <c r="D33">
-        <v>11.37552884436501</v>
+        <v>11.92096065996753</v>
       </c>
       <c r="E33">
-        <v>13.03948897143126</v>
+        <v>12.1109666867481</v>
       </c>
       <c r="F33">
-        <v>12.2275335773606</v>
+        <v>11.76141554950496</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>11.15081225291267</v>
+        <v>12.7413437324237</v>
       </c>
       <c r="C34">
-        <v>11.94307327569805</v>
+        <v>12.13094849334051</v>
       </c>
       <c r="D34">
-        <v>11.44454501690069</v>
+        <v>12.03230186463177</v>
       </c>
       <c r="E34">
-        <v>13.15140201553471</v>
+        <v>12.21691647255664</v>
       </c>
       <c r="F34">
-        <v>12.19375784978473</v>
+        <v>11.86922740055331</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>11.20418823817892</v>
+        <v>12.86467370398022</v>
       </c>
       <c r="C35">
-        <v>11.99381545660951</v>
+        <v>12.24634125614666</v>
       </c>
       <c r="D35">
-        <v>11.51745571034135</v>
+        <v>12.14915459853033</v>
       </c>
       <c r="E35">
-        <v>13.26523783531042</v>
+        <v>12.32778783628529</v>
       </c>
       <c r="F35">
-        <v>12.15763897160425</v>
+        <v>11.98273808258545</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>11.26089718456195</v>
+        <v>12.99270440177929</v>
       </c>
       <c r="C36">
-        <v>12.04633663314835</v>
+        <v>12.36706810608323</v>
       </c>
       <c r="D36">
-        <v>11.59422544342415</v>
+        <v>12.27150128598386</v>
       </c>
       <c r="E36">
-        <v>13.38081272359262</v>
+        <v>12.4435689788453</v>
       </c>
       <c r="F36">
-        <v>12.11928918838434</v>
+        <v>12.10193613406756</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>11.32091760438782</v>
+        <v>13.12542026503108</v>
       </c>
       <c r="C37">
-        <v>12.10061488366997</v>
+        <v>12.49311710274735</v>
       </c>
       <c r="D37">
-        <v>11.67481635448414</v>
+        <v>12.39932469261024</v>
       </c>
       <c r="E37">
-        <v>13.49793964787049</v>
+        <v>12.56424827228221</v>
       </c>
       <c r="F37">
-        <v>12.07881729787027</v>
+        <v>12.22681020804239</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>11.38422737236496</v>
+        <v>13.26280533149883</v>
       </c>
       <c r="C38">
-        <v>12.15662758846178</v>
+        <v>12.62447632844134</v>
       </c>
       <c r="D38">
-        <v>11.75918773273111</v>
+        <v>12.53260789592598</v>
       </c>
       <c r="E38">
-        <v>13.61642826076559</v>
+        <v>12.68981424698431</v>
       </c>
       <c r="F38">
-        <v>12.03632795213615</v>
+        <v>12.35734904115013</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11.4508035693976</v>
+        <v>13.40484317875397</v>
       </c>
       <c r="C39">
-        <v>12.21435109468519</v>
+        <v>12.76113386558399</v>
       </c>
       <c r="D39">
-        <v>11.84729553513466</v>
+        <v>12.6713342534293</v>
       </c>
       <c r="E39">
-        <v>13.73608499908384</v>
+        <v>12.82025557761489</v>
       </c>
       <c r="F39">
-        <v>11.9919209315214</v>
+        <v>12.49354143913297</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>11.52062234839916</v>
+        <v>13.55151686348705</v>
       </c>
       <c r="C40">
-        <v>12.2737607045504</v>
+        <v>12.90307776979803</v>
       </c>
       <c r="D40">
-        <v>11.93909184910638</v>
+        <v>12.81548736774485</v>
       </c>
       <c r="E40">
-        <v>13.85671314127091</v>
+        <v>12.95556106273204</v>
       </c>
       <c r="F40">
-        <v>11.9456904092764</v>
+        <v>12.63537623596272</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11.59365867048683</v>
+        <v>13.70280885666056</v>
       </c>
       <c r="C41">
-        <v>12.33483023958505</v>
+        <v>13.05029603140281</v>
       </c>
       <c r="D41">
-        <v>12.03452425185207</v>
+        <v>12.96505104810335</v>
       </c>
       <c r="E41">
-        <v>13.97811287554727</v>
+        <v>13.09571960473607</v>
       </c>
       <c r="F41">
-        <v>11.89772420065425</v>
+        <v>12.7828422658566</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11.66988608355334</v>
+        <v>13.85870096141137</v>
       </c>
       <c r="C42">
-        <v>12.39753194885137</v>
+        <v>13.20277654327544</v>
       </c>
       <c r="D42">
-        <v>12.13353504382522</v>
+        <v>13.12000926780203</v>
       </c>
       <c r="E42">
-        <v>14.10008145295064</v>
+        <v>13.24072018840619</v>
       </c>
       <c r="F42">
-        <v>11.84810306037281</v>
+        <v>12.93592832852127</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>11.74927647914536</v>
+        <v>14.01917422464162</v>
       </c>
       <c r="C43">
-        <v>12.4618360251531</v>
+        <v>13.36050705981709</v>
       </c>
       <c r="D43">
-        <v>12.23606039816653</v>
+        <v>13.28034611670142</v>
       </c>
       <c r="E43">
-        <v>14.22241325852324</v>
+        <v>13.39055185052258</v>
       </c>
       <c r="F43">
-        <v>11.79689998119188</v>
+        <v>13.09462312998139</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>11.83179966207959</v>
+        <v>14.18420883680083</v>
       </c>
       <c r="C44">
-        <v>12.52771027729439</v>
+        <v>13.52347514152464</v>
       </c>
       <c r="D44">
-        <v>12.34202946834342</v>
+        <v>13.44604574783012</v>
       </c>
       <c r="E44">
-        <v>14.34489998091368</v>
+        <v>13.54520364879813</v>
       </c>
       <c r="F44">
-        <v>11.74417953015009</v>
+        <v>13.25891525515117</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>11.91742301798978</v>
+        <v>14.3537840273726</v>
       </c>
       <c r="C45">
-        <v>12.59511974238386</v>
+        <v>13.69166810502589</v>
       </c>
       <c r="D45">
-        <v>12.45136315387012</v>
+        <v>13.61709231690762</v>
       </c>
       <c r="E45">
-        <v>14.467330782666</v>
+        <v>13.70466462733712</v>
       </c>
       <c r="F45">
-        <v>11.6899972582567</v>
+        <v>13.42879308393862</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>12.00611102824651</v>
+        <v>14.52787792259966</v>
       </c>
       <c r="C46">
-        <v>12.66402599292705</v>
+        <v>13.86507296081346</v>
       </c>
       <c r="D46">
-        <v>12.56397278769951</v>
+        <v>13.79346991330476</v>
       </c>
       <c r="E46">
-        <v>14.58949242197815</v>
+        <v>13.86892377425932</v>
       </c>
       <c r="F46">
-        <v>11.6343991728164</v>
+        <v>13.60424473667255</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>12.0978245657533</v>
+        <v>14.70646739989521</v>
       </c>
       <c r="C47">
-        <v>12.7343864979301</v>
+        <v>14.04367632830539</v>
       </c>
       <c r="D47">
-        <v>12.67975862228223</v>
+        <v>13.97516248058971</v>
       </c>
       <c r="E47">
-        <v>14.71116951790207</v>
+        <v>14.03796997029987</v>
       </c>
       <c r="F47">
-        <v>11.57742123329231</v>
+        <v>13.78525800003074</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12.19252035236022</v>
+        <v>14.88952792700448</v>
       </c>
       <c r="C48">
-        <v>12.80615377935077</v>
+        <v>14.22746435907921</v>
       </c>
       <c r="D48">
-        <v>12.79860810619784</v>
+        <v>14.16215372432861</v>
       </c>
       <c r="E48">
-        <v>14.83214473052924</v>
+        <v>14.21179193111527</v>
       </c>
       <c r="F48">
-        <v>11.51908905560894</v>
+        <v>13.97182019979839</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>12.29014998158775</v>
+        <v>15.07703335850067</v>
       </c>
       <c r="C49">
-        <v>12.87927457809666</v>
+        <v>14.4164226374824</v>
       </c>
       <c r="D49">
-        <v>12.92039360516676</v>
+        <v>14.35442700419412</v>
       </c>
       <c r="E49">
-        <v>14.952198982626</v>
+        <v>14.39037814923667</v>
       </c>
       <c r="F49">
-        <v>11.45941769235543</v>
+        <v>14.16391814537076</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>12.39065870655583</v>
+        <v>15.26895570672999</v>
       </c>
       <c r="C50">
-        <v>12.95368870288589</v>
+        <v>14.61053604482857</v>
       </c>
       <c r="D50">
-        <v>13.04496992524032</v>
+        <v>14.55196520663561</v>
       </c>
       <c r="E50">
-        <v>15.07111177686599</v>
+        <v>14.57371680324278</v>
       </c>
       <c r="F50">
-        <v>11.39841156954499</v>
+        <v>14.36153793426779</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>12.49398466790839</v>
+        <v>15.46526487103641</v>
       </c>
       <c r="C51">
-        <v>13.02932772923905</v>
+        <v>14.80978863570089</v>
       </c>
       <c r="D51">
-        <v>13.17217162941771</v>
+        <v>14.75475059332137</v>
       </c>
       <c r="E51">
-        <v>15.18866140600723</v>
+        <v>14.7617956647138</v>
       </c>
       <c r="F51">
-        <v>11.33606446041833</v>
+        <v>14.56466483124249</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>12.60005654178587</v>
+        <v>15.66592836432939</v>
       </c>
       <c r="C52">
-        <v>13.10611355955189</v>
+        <v>15.01416347107462</v>
       </c>
       <c r="D52">
-        <v>13.30180957179367</v>
+        <v>14.96276461902076</v>
       </c>
       <c r="E52">
-        <v>15.30462529789934</v>
+        <v>14.95460199703728</v>
       </c>
       <c r="F52">
-        <v>11.27236008799431</v>
+        <v>14.77328308813487</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>12.72908117296113</v>
+        <v>15.87091090738114</v>
       </c>
       <c r="C53">
-        <v>13.19924245920807</v>
+        <v>15.2236423882103</v>
       </c>
       <c r="D53">
-        <v>13.4568092410618</v>
+        <v>15.17598771107883</v>
       </c>
       <c r="E53">
-        <v>15.43275377637471</v>
+        <v>15.15212240797778</v>
       </c>
       <c r="F53">
-        <v>11.25441320213142</v>
+        <v>14.9873756235901</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>12.90099658898655</v>
+        <v>16.08017400993595</v>
       </c>
       <c r="C54">
-        <v>13.32358355583672</v>
+        <v>15.43820579060341</v>
       </c>
       <c r="D54">
-        <v>13.65944964137388</v>
+        <v>15.39439900133404</v>
       </c>
       <c r="E54">
-        <v>15.58576080015906</v>
+        <v>15.35434267876882</v>
       </c>
       <c r="F54">
-        <v>11.32508198417454</v>
+        <v>15.20692393012618</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>13.115277491924</v>
+        <v>16.29367549176885</v>
       </c>
       <c r="C55">
-        <v>13.47851883116599</v>
+        <v>15.6578323500695</v>
       </c>
       <c r="D55">
-        <v>13.9084250776626</v>
+        <v>15.61797599344587</v>
       </c>
       <c r="E55">
-        <v>15.76185825001019</v>
+        <v>15.56124756872135</v>
       </c>
       <c r="F55">
-        <v>11.47921434382463</v>
+        <v>15.4319074966134</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>13.37132287176711</v>
+        <v>16.51136887390192</v>
       </c>
       <c r="C56">
-        <v>13.66336512595812</v>
+        <v>15.88249859190882</v>
       </c>
       <c r="D56">
-        <v>14.20223103644508</v>
+        <v>15.84669415255268</v>
       </c>
       <c r="E56">
-        <v>15.95925464358375</v>
+        <v>15.77282057331309</v>
       </c>
       <c r="F56">
-        <v>11.71186158169492</v>
+        <v>15.66230347199282</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>13.66842899145423</v>
+        <v>16.73320262856772</v>
       </c>
       <c r="C57">
-        <v>13.87735372590051</v>
+        <v>16.11217857862993</v>
       </c>
       <c r="D57">
-        <v>14.53911983299328</v>
+        <v>16.08052638811244</v>
       </c>
       <c r="E57">
-        <v>16.17615416632237</v>
+        <v>15.9890435803633</v>
       </c>
       <c r="F57">
-        <v>12.01780988593127</v>
+        <v>15.89808610203088</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14.00575762411681</v>
+        <v>16.9591192941954</v>
       </c>
       <c r="C58">
-        <v>14.11960904452121</v>
+        <v>16.34684317455478</v>
       </c>
       <c r="D58">
-        <v>14.91705008370691</v>
+        <v>16.31944240101213</v>
       </c>
       <c r="E58">
-        <v>16.41075765742013</v>
+        <v>16.20989651495101</v>
       </c>
       <c r="F58">
-        <v>12.39145026583932</v>
+        <v>16.13922608324143</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>14.38229480954166</v>
+        <v>17.18905455050406</v>
       </c>
       <c r="C59">
-        <v>14.38912356286089</v>
+        <v>16.5864594184503</v>
       </c>
       <c r="D59">
-        <v>15.33363028221456</v>
+        <v>16.56340785108882</v>
       </c>
       <c r="E59">
-        <v>16.66126354565481</v>
+        <v>16.43535675800752</v>
       </c>
       <c r="F59">
-        <v>12.82672666998099</v>
+        <v>16.38568967969287</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>14.79679783468423</v>
+        <v>17.42293578853577</v>
       </c>
       <c r="C60">
-        <v>14.68472875874369</v>
+        <v>16.83098965541645</v>
       </c>
       <c r="D60">
-        <v>15.78604979281075</v>
+        <v>16.81238328582475</v>
       </c>
       <c r="E60">
-        <v>16.92586923152442</v>
+        <v>16.66539851466525</v>
       </c>
       <c r="F60">
-        <v>13.3171165702038</v>
+        <v>16.6374375924181</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>15.24772961047099</v>
+        <v>17.66068054028634</v>
       </c>
       <c r="C61">
-        <v>15.00506649256891</v>
+        <v>17.08039040279879</v>
       </c>
       <c r="D61">
-        <v>16.27100588819573</v>
+        <v>17.06632274908114</v>
       </c>
       <c r="E61">
-        <v>17.20277295862372</v>
+        <v>16.89999198122764</v>
       </c>
       <c r="F61">
-        <v>13.85563289986898</v>
+        <v>16.89442352606927</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>15.73317326171696</v>
+        <v>17.90219482849227</v>
       </c>
       <c r="C62">
-        <v>15.34855550230832</v>
+        <v>17.33461087396061</v>
       </c>
       <c r="D62">
-        <v>16.78462331838402</v>
+        <v>17.32517195820036</v>
       </c>
       <c r="E62">
-        <v>17.49017599000114</v>
+        <v>17.13910221574561</v>
       </c>
       <c r="F62">
-        <v>14.43484593104293</v>
+        <v>17.15659231833203</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>16.25072463457149</v>
+        <v>18.14737023485841</v>
       </c>
       <c r="C63">
-        <v>15.71335742700596</v>
+        <v>17.59359105983533</v>
       </c>
       <c r="D63">
-        <v>17.32237127543415</v>
+        <v>17.58886589451925</v>
       </c>
       <c r="E63">
-        <v>17.7862851967207</v>
+        <v>17.38268762149653</v>
       </c>
       <c r="F63">
-        <v>15.04692605704516</v>
+        <v>17.42387749251508</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>16.79735981932444</v>
+        <v>18.39608107141007</v>
       </c>
       <c r="C64">
-        <v>16.09734353427584</v>
+        <v>17.85725921498959</v>
       </c>
       <c r="D64">
-        <v>17.87898772834764</v>
+        <v>17.85732559092267</v>
       </c>
       <c r="E64">
-        <v>18.08931616896225</v>
+        <v>17.63069791907416</v>
       </c>
       <c r="F64">
-        <v>15.68370965820913</v>
+        <v>17.69619815441326</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>17.36927687907772</v>
+        <v>18.64818061923738</v>
       </c>
       <c r="C65">
-        <v>16.49806432234885</v>
+        <v>18.12552851969505</v>
       </c>
       <c r="D65">
-        <v>18.44842327644863</v>
+        <v>18.13045381313124</v>
       </c>
       <c r="E65">
-        <v>18.39749680767194</v>
+        <v>17.88307139627022</v>
       </c>
       <c r="F65">
-        <v>16.3367908072645</v>
+        <v>17.97345459528362</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>17.96171748435524</v>
+        <v>18.9034962215385</v>
       </c>
       <c r="C66">
-        <v>16.91272515014477</v>
+        <v>18.3982925680912</v>
       </c>
       <c r="D66">
-        <v>19.02382457012105</v>
+        <v>18.40812920368327</v>
       </c>
       <c r="E66">
-        <v>18.70907132960745</v>
+        <v>18.13973111924657</v>
       </c>
       <c r="F66">
-        <v>16.9976399582021</v>
+        <v>18.25552278725551</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>18.56878431966867</v>
+        <v>19.16182292906898</v>
       </c>
       <c r="C67">
-        <v>17.33817440438524</v>
+        <v>18.67541938342866</v>
       </c>
       <c r="D67">
-        <v>19.59758312204516</v>
+        <v>18.69019868686035</v>
       </c>
       <c r="E67">
-        <v>19.02230498681641</v>
+        <v>18.40057965183368</v>
       </c>
       <c r="F67">
-        <v>17.65774944132646</v>
+        <v>18.54224665367084</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>19.1832861423838</v>
+        <v>19.42291532944345</v>
       </c>
       <c r="C68">
-        <v>17.77090617773338</v>
+        <v>18.95674300271577</v>
       </c>
       <c r="D68">
-        <v>20.16147757330353</v>
+        <v>18.97646566062914</v>
       </c>
       <c r="E68">
-        <v>19.33548917792476</v>
+        <v>18.66549194141608</v>
       </c>
       <c r="F68">
-        <v>18.30880298663523</v>
+        <v>18.83342698814553</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>19.79666283474483</v>
+        <v>19.68647695772682</v>
       </c>
       <c r="C69">
-        <v>18.20708438405209</v>
+        <v>19.24205261999256</v>
       </c>
       <c r="D69">
-        <v>20.70693401933299</v>
+        <v>19.26667544077791</v>
       </c>
       <c r="E69">
-        <v>19.64694673091771</v>
+        <v>18.93430409705147</v>
       </c>
       <c r="F69">
-        <v>18.94286335086288</v>
+        <v>19.12880797249757</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20.39906970689044</v>
+        <v>19.95214642515326</v>
       </c>
       <c r="C70">
-        <v>18.64259424703474</v>
+        <v>19.53107536954664</v>
       </c>
       <c r="D70">
-        <v>21.22541316565092</v>
+        <v>19.56049472663096</v>
       </c>
       <c r="E70">
-        <v>19.95503901181823</v>
+        <v>19.20679877686108</v>
       </c>
       <c r="F70">
-        <v>19.55256879714866</v>
+        <v>19.42805799595208</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20.97969231726989</v>
+        <v>20.21947914698267</v>
       </c>
       <c r="C71">
-        <v>19.07312218086024</v>
+        <v>19.82345434411241</v>
       </c>
       <c r="D71">
-        <v>21.70890469414149</v>
+        <v>19.85748297104344</v>
       </c>
       <c r="E71">
-        <v>20.25817207627991</v>
+        <v>19.48268412375516</v>
       </c>
       <c r="F71">
-        <v>20.1313260619629</v>
+        <v>19.73074365874974</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21.52735643897424</v>
+        <v>20.48792402443491</v>
       </c>
       <c r="C72">
-        <v>19.4942659494186</v>
+        <v>20.11871847932455</v>
       </c>
       <c r="D72">
-        <v>22.15047232378064</v>
+        <v>20.15705375029197</v>
       </c>
       <c r="E72">
-        <v>20.55480341445584</v>
+        <v>19.76156242660749</v>
       </c>
       <c r="F72">
-        <v>20.6734853098603</v>
+        <v>20.03629341276319</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>22.03141484677417</v>
+        <v>20.75679006342655</v>
       </c>
       <c r="C73">
-        <v>19.90167091139097</v>
+        <v>20.41623807606344</v>
       </c>
       <c r="D73">
-        <v>22.54476078799452</v>
+        <v>20.45842297545991</v>
       </c>
       <c r="E73">
-        <v>20.84344993763915</v>
+        <v>20.04288739640247</v>
       </c>
       <c r="F73">
-        <v>21.1744821029007</v>
+        <v>20.34395144116522</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>22.4827895318664</v>
+        <v>21.02520574719404</v>
       </c>
       <c r="C74">
-        <v>20.29118432703622</v>
+        <v>20.71516509344904</v>
       </c>
       <c r="D74">
-        <v>22.88836576346172</v>
+        <v>20.7605412682313</v>
       </c>
       <c r="E74">
-        <v>21.12269556202784</v>
+        <v>20.32590458544879</v>
       </c>
       <c r="F74">
-        <v>21.63093303536921</v>
+        <v>20.65271656949256</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>22.87494300969428</v>
+        <v>21.2920669405082</v>
       </c>
       <c r="C75">
-        <v>20.65901528251148</v>
+        <v>21.01435424325382</v>
       </c>
       <c r="D75">
-        <v>23.17998101800486</v>
+        <v>21.06200995302139</v>
       </c>
       <c r="E75">
-        <v>21.39119833144396</v>
+        <v>20.60957141194076</v>
       </c>
       <c r="F75">
-        <v>22.04067538069756</v>
+        <v>20.96126472963394</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>23.20452155210178</v>
+        <v>21.55597081358533</v>
       </c>
       <c r="C76">
-        <v>21.00188499116376</v>
+        <v>21.31225995660603</v>
       </c>
       <c r="D76">
-        <v>23.42030962289349</v>
+        <v>21.36098172405746</v>
       </c>
       <c r="E76">
-        <v>21.64770130721165</v>
+        <v>20.89245616372671</v>
       </c>
       <c r="F76">
-        <v>22.40274679126144</v>
+        <v>21.26785707152231</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>23.47149288305235</v>
+        <v>21.81513889591469</v>
       </c>
       <c r="C77">
-        <v>21.31715088015028</v>
+        <v>21.60681450996583</v>
       </c>
       <c r="D77">
-        <v>23.61175844286628</v>
+        <v>21.65505488031606</v>
       </c>
       <c r="E77">
-        <v>21.89103975480606</v>
+        <v>21.17261976892732</v>
       </c>
       <c r="F77">
-        <v>22.71730731370313</v>
+        <v>21.5702397549896</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>23.67876545640174</v>
+        <v>22.06733705135341</v>
       </c>
       <c r="C78">
-        <v>21.60289243864557</v>
+        <v>21.8952996635799</v>
       </c>
       <c r="D78">
-        <v>23.75800052239671</v>
+        <v>21.94118427840179</v>
       </c>
       <c r="E78">
-        <v>22.12014905434037</v>
+        <v>21.44749513363482</v>
       </c>
       <c r="F78">
-        <v>22.98551213886415</v>
+        <v>21.86555069950289</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>23.83143757180566</v>
+        <v>22.30981114114149</v>
       </c>
       <c r="C79">
-        <v>21.8579477063377</v>
+        <v>22.17424277190804</v>
       </c>
       <c r="D79">
-        <v>23.86349600353179</v>
+        <v>22.21564107015475</v>
       </c>
       <c r="E79">
-        <v>22.33407400318588</v>
+        <v>21.71379393725594</v>
       </c>
       <c r="F79">
-        <v>23.20934814712905</v>
+        <v>22.1502622829391</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>23.9359061781013</v>
+        <v>22.53926849788386</v>
       </c>
       <c r="C80">
-        <v>22.08190173399939</v>
+        <v>22.43938945392577</v>
       </c>
       <c r="D80">
-        <v>23.93305144190871</v>
+        <v>22.47406899103475</v>
       </c>
       <c r="E80">
-        <v>22.53197735582652</v>
+        <v>21.96748873600585</v>
       </c>
       <c r="F80">
-        <v>23.39144991331473</v>
+        <v>22.42020279057343</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>23.99904250569959</v>
+        <v>22.75195386000559</v>
       </c>
       <c r="C81">
-        <v>22.27502815742843</v>
+        <v>22.68582420325954</v>
       </c>
       <c r="D81">
-        <v>23.97146581028198</v>
+        <v>22.71169035915823</v>
       </c>
       <c r="E81">
-        <v>22.71314785646327</v>
+        <v>22.20393051888109</v>
       </c>
       <c r="F81">
-        <v>23.53491090237841</v>
+        <v>22.67071079135258</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>24.02755933786329</v>
+        <v>22.94386518702476</v>
       </c>
       <c r="C82">
-        <v>22.43819718704911</v>
+        <v>22.90830300704262</v>
       </c>
       <c r="D82">
-        <v>23.98328103375292</v>
+        <v>22.92368947703133</v>
       </c>
       <c r="E82">
-        <v>22.87700826038763</v>
+        <v>22.41815421657157</v>
       </c>
       <c r="F82">
-        <v>23.64310376164972</v>
+        <v>22.89694973944462</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>24.02760567708904</v>
+        <v>23.11112792739457</v>
       </c>
       <c r="C83">
-        <v>22.57276041226039</v>
+        <v>23.1018031608407</v>
       </c>
       <c r="D83">
-        <v>23.97263063649111</v>
+        <v>23.10574741378718</v>
       </c>
       <c r="E83">
-        <v>23.02312219647537</v>
+        <v>22.6053810382802</v>
       </c>
       <c r="F83">
-        <v>23.71952027196179</v>
+        <v>23.09439103221473</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>24.00456145273014</v>
+        <v>23.25048340361736</v>
       </c>
       <c r="C84">
-        <v>22.6804276115736</v>
+        <v>23.2622182875732</v>
       </c>
       <c r="D84">
-        <v>23.94316821882148</v>
+        <v>23.25462599081046</v>
       </c>
       <c r="E84">
-        <v>23.15120033344848</v>
+        <v>22.76164576245668</v>
       </c>
       <c r="F84">
-        <v>23.76763757471522</v>
+        <v>23.2593839320084</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>23.96298016057214</v>
+        <v>23.35977354486886</v>
       </c>
       <c r="C85">
-        <v>22.76314605131608</v>
+        <v>23.38700700078757</v>
       </c>
       <c r="D85">
-        <v>23.89805299834538</v>
+        <v>23.36864246101455</v>
       </c>
       <c r="E85">
-        <v>23.26110550651646</v>
+        <v>22.88439249341883</v>
       </c>
       <c r="F85">
-        <v>23.79081352833191</v>
+        <v>23.38967429757093</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>23.90657126227771</v>
+        <v>23.43826976734162</v>
       </c>
       <c r="C86">
-        <v>22.82237143383979</v>
+        <v>23.47558168243384</v>
       </c>
       <c r="D86">
-        <v>23.83990344128941</v>
+        <v>23.44787464145283</v>
       </c>
       <c r="E86">
-        <v>23.35195999934304</v>
+        <v>22.97284735154066</v>
       </c>
       <c r="F86">
-        <v>23.79187563389959</v>
+        <v>23.48471300148348</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>23.83837703122481</v>
+        <v>23.48673544396016</v>
       </c>
       <c r="C87">
-        <v>22.85987750859437</v>
+        <v>23.52930237735849</v>
       </c>
       <c r="D87">
-        <v>23.77095083282714</v>
+        <v>23.49405101481668</v>
       </c>
       <c r="E87">
-        <v>23.42335444391229</v>
+        <v>23.02804314105587</v>
       </c>
       <c r="F87">
-        <v>23.77359828563849</v>
+        <v>23.54565671590638</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>23.76088920882041</v>
+        <v>23.50721393281299</v>
       </c>
       <c r="C88">
-        <v>22.87808897202369</v>
+        <v>23.55110018674327</v>
       </c>
       <c r="D88">
-        <v>23.69312357676599</v>
+        <v>23.51016602396782</v>
       </c>
       <c r="E88">
-        <v>23.47604058763918</v>
+        <v>23.05251647155308</v>
       </c>
       <c r="F88">
-        <v>23.73884923173829</v>
+        <v>23.57507507587562</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>23.67607714731108</v>
+        <v>23.50263404026189</v>
       </c>
       <c r="C89">
-        <v>22.8792538924566</v>
+        <v>23.54489144364764</v>
       </c>
       <c r="D89">
-        <v>23.60800963865537</v>
+        <v>23.49996801718607</v>
       </c>
       <c r="E89">
-        <v>23.51086163684874</v>
+        <v>23.0497929002474</v>
       </c>
       <c r="F89">
-        <v>23.69014336041533</v>
+        <v>23.57647703669562</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>23.58549343419154</v>
+        <v>23.47636600821702</v>
       </c>
       <c r="C90">
-        <v>22.86542469848063</v>
+        <v>23.51497677196804</v>
       </c>
       <c r="D90">
-        <v>23.51690743865418</v>
+        <v>23.46746251741664</v>
       </c>
       <c r="E90">
-        <v>23.52874671514906</v>
+        <v>23.02383931725895</v>
       </c>
       <c r="F90">
-        <v>23.62966300198538</v>
+        <v>23.55380391019538</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>23.49035657768682</v>
+        <v>23.43183736600263</v>
       </c>
       <c r="C91">
-        <v>22.83845398825044</v>
+        <v>23.46556387922788</v>
       </c>
       <c r="D91">
-        <v>23.42088050781632</v>
+        <v>23.41652763098746</v>
       </c>
       <c r="E91">
-        <v>23.53070359796335</v>
+        <v>22.97861037289854</v>
       </c>
       <c r="F91">
-        <v>23.55929117356265</v>
+        <v>23.51100341035137</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>23.39162313936028</v>
+        <v>23.37226286737609</v>
       </c>
       <c r="C92">
-        <v>22.7999992154104</v>
+        <v>23.40046553967945</v>
       </c>
       <c r="D92">
-        <v>23.32079906081777</v>
+        <v>23.35067230317884</v>
       </c>
       <c r="E92">
-        <v>23.51780732004645</v>
+        <v>22.91774625251816</v>
       </c>
       <c r="F92">
-        <v>23.48063972636312</v>
+        <v>23.45173759780138</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>23.29004542522266</v>
+        <v>23.3004926772441</v>
       </c>
       <c r="C93">
-        <v>22.75153033213026</v>
+        <v>23.3229567126924</v>
       </c>
       <c r="D93">
-        <v>23.21737511951537</v>
+        <v>23.27292213676396</v>
       </c>
       <c r="E93">
-        <v>23.49118561797806</v>
+        <v>22.84441661653349</v>
       </c>
       <c r="F93">
-        <v>23.39507965527523</v>
+        <v>23.37922476272614</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>23.18621312272969</v>
+        <v>23.21895472042918</v>
       </c>
       <c r="C94">
-        <v>22.69434294401391</v>
+        <v>23.23574647612536</v>
       </c>
       <c r="D94">
-        <v>23.11119099013234</v>
+        <v>23.18579729437077</v>
       </c>
       <c r="E94">
-        <v>23.45200127308366</v>
+        <v>22.76127487308012</v>
       </c>
       <c r="F94">
-        <v>23.30377321856926</v>
+        <v>23.29618554339047</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>23.08059024966014</v>
+        <v>23.12965922977444</v>
       </c>
       <c r="C95">
-        <v>22.6295736165874</v>
+        <v>23.14101714318827</v>
       </c>
       <c r="D95">
-        <v>23.00272362034159</v>
+        <v>23.09134547234508</v>
       </c>
       <c r="E95">
-        <v>23.40143114228853</v>
+        <v>22.67048102780197</v>
       </c>
       <c r="F95">
-        <v>23.20770062772432</v>
+        <v>23.20485663751307</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>22.97354294680427</v>
+        <v>23.03423759521942</v>
       </c>
       <c r="C96">
-        <v>22.5582152340089</v>
+        <v>23.04049469696486</v>
       </c>
       <c r="D96">
-        <v>22.89236696505595</v>
+        <v>22.99120154701374</v>
       </c>
       <c r="E96">
-        <v>23.34064383052577</v>
+        <v>22.57375928704978</v>
       </c>
       <c r="F96">
-        <v>23.10768473585383</v>
+        <v>23.10704077213772</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>22.86536117472459</v>
+        <v>22.93399554648414</v>
       </c>
       <c r="C97">
-        <v>22.48113223573168</v>
+        <v>22.93552715712766</v>
       </c>
       <c r="D97">
-        <v>22.78044366644635</v>
+        <v>22.8866547877882</v>
       </c>
       <c r="E97">
-        <v>23.27077789113008</v>
+        <v>22.47246716305637</v>
       </c>
       <c r="F97">
-        <v>23.00441440064679</v>
+        <v>23.00417088569276</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>22.75627497250379</v>
+        <v>22.82996854364864</v>
       </c>
       <c r="C98">
-        <v>22.39907565904759</v>
+        <v>22.8271591228292</v>
       </c>
       <c r="D98">
-        <v>22.66721932042525</v>
+        <v>22.77871390388462</v>
       </c>
       <c r="E98">
-        <v>23.19292173903547</v>
+        <v>22.36766435009582</v>
       </c>
       <c r="F98">
-        <v>22.89846493524863</v>
+        <v>22.89737537249158</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>22.64646694582792</v>
+        <v>22.72297294135459</v>
       </c>
       <c r="C99">
-        <v>22.31269708268176</v>
+        <v>22.71619619576762</v>
       </c>
       <c r="D99">
-        <v>22.55291394568479</v>
+        <v>22.66816416921867</v>
       </c>
       <c r="E99">
-        <v>23.1080965231386</v>
+        <v>22.26017325191712</v>
       </c>
       <c r="F99">
-        <v>22.79031714908398</v>
+        <v>22.78753760740604</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>22.5360824857889</v>
+        <v>22.61365023143317</v>
       </c>
       <c r="C100">
-        <v>22.22256128291487</v>
+        <v>22.60325788595041</v>
       </c>
       <c r="D100">
-        <v>22.43771031073033</v>
+        <v>22.5556148367235</v>
       </c>
       <c r="E100">
-        <v>23.01724324835867</v>
+        <v>22.15062995406138</v>
       </c>
       <c r="F100">
-        <v>22.6803696314176</v>
+        <v>22.67534675335562</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>22.42523797111826</v>
+        <v>22.50250378227088</v>
       </c>
       <c r="C101">
-        <v>22.12915750808871</v>
+        <v>22.48882035245779</v>
       </c>
       <c r="D101">
-        <v>22.32176017160235</v>
+        <v>22.44153814225381</v>
       </c>
       <c r="E101">
-        <v>22.92121477998992</v>
+        <v>22.03952581047989</v>
       </c>
       <c r="F101">
-        <v>22.56895296886889</v>
+        <v>22.56133952618037</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>22.31402696801766</v>
+        <v>22.38992856476095</v>
       </c>
       <c r="C102">
-        <v>22.0329094667168</v>
+        <v>22.37324965795479</v>
       </c>
       <c r="D102">
-        <v>22.20518990826831</v>
+        <v>22.3263001103814</v>
       </c>
       <c r="E102">
-        <v>22.82077249674094</v>
+        <v>21.92724034177046</v>
       </c>
       <c r="F102">
-        <v>22.45634186651212</v>
+        <v>22.44593363302565</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>22.20252487192182</v>
+        <v>22.2762348010273</v>
       </c>
       <c r="C103">
-        <v>21.93418419425058</v>
+        <v>22.25682766162396</v>
       </c>
       <c r="D103">
-        <v>22.08810524444543</v>
+        <v>22.21018464234582</v>
       </c>
       <c r="E103">
-        <v>22.71658700676054</v>
+        <v>21.81406694715795</v>
       </c>
       <c r="F103">
-        <v>22.3427640091532</v>
+        <v>22.329454691487</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>22.09079256424132</v>
+        <v>22.16166652787572</v>
       </c>
       <c r="C104">
-        <v>21.83329974334131</v>
+        <v>22.13977179098792</v>
       </c>
       <c r="D104">
-        <v>21.97059490000724</v>
+        <v>22.09341234432955</v>
       </c>
       <c r="E104">
-        <v>22.6092422109874</v>
+        <v>21.70023283528431</v>
       </c>
       <c r="F104">
-        <v>22.22840766381625</v>
+        <v>22.21215677865243</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>21.97887938588237</v>
+        <v>22.04641613052004</v>
       </c>
       <c r="C105">
-        <v>21.73053204236176</v>
+        <v>22.02225018864212</v>
       </c>
       <c r="D105">
-        <v>21.85273345196588</v>
+        <v>21.97615495070894</v>
       </c>
       <c r="E105">
-        <v>22.49924151749828</v>
+        <v>21.5859143143454</v>
       </c>
       <c r="F105">
-        <v>22.11342838780424</v>
+        <v>22.09423854126421</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>21.86682550034129</v>
+        <v>21.93063593229877</v>
       </c>
       <c r="C106">
-        <v>21.626120704902</v>
+        <v>21.90439327379634</v>
       </c>
       <c r="D106">
-        <v>21.73458375784088</v>
+        <v>21.8585464897304</v>
       </c>
       <c r="E106">
-        <v>22.38701552036389</v>
+        <v>21.47124854739308</v>
       </c>
       <c r="F106">
-        <v>21.99795489321496</v>
+        <v>21.97585578369456</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>21.75466371648859</v>
+        <v>21.81444673756224</v>
       </c>
       <c r="C107">
-        <v>21.52027403393727</v>
+        <v>21.78630247841645</v>
       </c>
       <c r="D107">
-        <v>21.61619899129529</v>
+        <v>21.74069184961317</v>
       </c>
       <c r="E107">
-        <v>22.27293017414705</v>
+        <v>21.35634255269001</v>
       </c>
       <c r="F107">
-        <v>21.88209377280469</v>
+        <v>21.85713097549259</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>21.64242090565257</v>
+        <v>21.69794449323518</v>
       </c>
       <c r="C108">
-        <v>21.41317334029074</v>
+        <v>21.66805696272927</v>
       </c>
       <c r="D108">
-        <v>21.4976242695063</v>
+        <v>21.6226733323073</v>
       </c>
       <c r="E108">
-        <v>22.15729497591045</v>
+        <v>21.24128002989931</v>
       </c>
       <c r="F108">
-        <v>21.76593318142231</v>
+        <v>21.73816069812533</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>21.53011913895009</v>
+        <v>21.58120577160448</v>
       </c>
       <c r="C109">
-        <v>21.30497666565238</v>
+        <v>21.54971866915819</v>
       </c>
       <c r="D109">
-        <v>21.37889796291961</v>
+        <v>21.50455571963922</v>
       </c>
       <c r="E109">
-        <v>22.0403707320679</v>
+        <v>21.12612666206678</v>
       </c>
       <c r="F109">
-        <v>21.64954593366633</v>
+        <v>21.61902137487846</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>21.41777660932151</v>
+        <v>21.46429196087472</v>
       </c>
       <c r="C110">
-        <v>21.19582197272222</v>
+        <v>21.43133623629974</v>
       </c>
       <c r="D110">
-        <v>21.26005276258746</v>
+        <v>21.38639010713226</v>
       </c>
       <c r="E110">
-        <v>21.92237667942698</v>
+        <v>21.01093427054504</v>
       </c>
       <c r="F110">
-        <v>21.53299210356489</v>
+        <v>21.49977364185954</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>21.30540836768713</v>
+        <v>21.34725237832895</v>
       </c>
       <c r="C111">
-        <v>21.08582993951924</v>
+        <v>21.31294809398248</v>
       </c>
       <c r="D111">
-        <v>21.14111663781419</v>
+        <v>21.26821701320695</v>
       </c>
       <c r="E111">
-        <v>21.80349677528551</v>
+        <v>20.89574383584665</v>
       </c>
       <c r="F111">
-        <v>21.41632127214966</v>
+        <v>21.38046580383772</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>21.19302690466025</v>
+        <v>21.23012675366222</v>
       </c>
       <c r="C112">
-        <v>20.97510625985418</v>
+        <v>21.19458467116117</v>
       </c>
       <c r="D112">
-        <v>21.02211360421012</v>
+        <v>21.15006871823875</v>
       </c>
       <c r="E112">
-        <v>21.68388530091813</v>
+        <v>20.78058780172883</v>
       </c>
       <c r="F112">
-        <v>21.29957446398902</v>
+        <v>21.26113645491847</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>21.0806426152818</v>
+        <v>21.11294724160697</v>
       </c>
       <c r="C113">
-        <v>20.863743664694</v>
+        <v>21.0762700605654</v>
       </c>
       <c r="D113">
-        <v>20.90306432253519</v>
+        <v>21.03197094330359</v>
       </c>
       <c r="E113">
-        <v>21.56367172652606</v>
+        <v>20.66549192133004</v>
       </c>
       <c r="F113">
-        <v>21.1827856749021</v>
+        <v>21.14181652244129</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>20.96826417559444</v>
+        <v>20.99573994862385</v>
       </c>
       <c r="C114">
-        <v>20.75182366162619</v>
+        <v>20.95802341111419</v>
       </c>
       <c r="D114">
-        <v>20.78398661642981</v>
+        <v>20.91394420143584</v>
       </c>
       <c r="E114">
-        <v>21.44296470852271</v>
+        <v>20.55047678442528</v>
       </c>
       <c r="F114">
-        <v>21.06598305960448</v>
+        <v>21.02253086731266</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>20.85589882136435</v>
+        <v>20.87852613039258</v>
       </c>
       <c r="C115">
-        <v>20.63941802345808</v>
+        <v>20.83986003387413</v>
       </c>
       <c r="D115">
-        <v>20.66489590153423</v>
+        <v>20.79600494341568</v>
       </c>
       <c r="E115">
-        <v>21.3218554390718</v>
+        <v>20.43555892198541</v>
       </c>
       <c r="F115">
-        <v>20.94918992326583</v>
+        <v>20.90329958020352</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>20.74355266179215</v>
+        <v>20.76132312607488</v>
       </c>
       <c r="C116">
-        <v>20.52659006687682</v>
+        <v>20.72179223829472</v>
       </c>
       <c r="D116">
-        <v>20.54580546804477</v>
+        <v>20.67816644766372</v>
       </c>
       <c r="E116">
-        <v>21.20042054566923</v>
+        <v>20.32075162904339</v>
       </c>
       <c r="F116">
-        <v>20.83242556399724</v>
+        <v>20.78413898469051</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>20.63123084781789</v>
+        <v>20.64414514754085</v>
       </c>
       <c r="C117">
-        <v>20.41339575207732</v>
+        <v>20.60382993695573</v>
       </c>
       <c r="D117">
-        <v>20.42672687317988</v>
+        <v>20.56043946763159</v>
       </c>
       <c r="E117">
-        <v>21.07872455745665</v>
+        <v>20.20606563282312</v>
       </c>
       <c r="F117">
-        <v>20.71570597487197</v>
+        <v>20.66506235782541</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>20.51893770218221</v>
+        <v>20.52700395907153</v>
       </c>
       <c r="C118">
-        <v>20.29988462709893</v>
+        <v>20.48598112729029</v>
       </c>
       <c r="D118">
-        <v>20.30767018329563</v>
+        <v>20.44283272525484</v>
       </c>
       <c r="E118">
-        <v>20.95682192774645</v>
+        <v>20.09150960125792</v>
       </c>
       <c r="F118">
-        <v>20.59904444496248</v>
+        <v>20.54608050362663</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.40667700013249</v>
+        <v>20.40990926736352</v>
       </c>
       <c r="C119">
-        <v>20.18610064382495</v>
+        <v>20.36825228083181</v>
       </c>
       <c r="D119">
-        <v>20.18864420020062</v>
+        <v>20.32535331849063</v>
       </c>
       <c r="E119">
-        <v>20.83475867951629</v>
+        <v>19.97709062674071</v>
       </c>
       <c r="F119">
-        <v>20.48245203153338</v>
+        <v>20.42720222939693</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.29445184640015</v>
+        <v>20.2928690889585</v>
       </c>
       <c r="C120">
-        <v>20.07208286932771</v>
+        <v>20.25064866950403</v>
       </c>
       <c r="D120">
-        <v>20.06965663095901</v>
+        <v>20.20800703167449</v>
       </c>
       <c r="E120">
-        <v>20.71257377279675</v>
+        <v>19.86281453333879</v>
       </c>
       <c r="F120">
-        <v>20.36593793342984</v>
+        <v>20.30843477489892</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>20.18226490755937</v>
+        <v>20.17589006720557</v>
       </c>
       <c r="C121">
-        <v>19.95786608094803</v>
+        <v>20.13317456413848</v>
       </c>
       <c r="D121">
-        <v>19.95071422079261</v>
+        <v>20.09079864427952</v>
       </c>
       <c r="E121">
-        <v>20.59030025794767</v>
+        <v>19.74868609719366</v>
       </c>
       <c r="F121">
-        <v>20.24950981246619</v>
+        <v>20.18978412966228</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.07011846464646</v>
+        <v>20.05897772303038</v>
       </c>
       <c r="C122">
-        <v>19.84348130121358</v>
+        <v>20.01583360186988</v>
       </c>
       <c r="D122">
-        <v>19.83182289552915</v>
+        <v>19.97373207685992</v>
       </c>
       <c r="E122">
-        <v>20.46796623979165</v>
+        <v>19.63470935184309</v>
       </c>
       <c r="F122">
-        <v>20.1331740606647</v>
+        <v>20.07125525809017</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>19.95801445867567</v>
+        <v>19.94213667695688</v>
       </c>
       <c r="C123">
-        <v>19.72895625406091</v>
+        <v>19.89862871215495</v>
       </c>
       <c r="D123">
-        <v>19.71298787094619</v>
+        <v>19.85681064843758</v>
       </c>
       <c r="E123">
-        <v>20.34559567216113</v>
+        <v>19.52088758336939</v>
       </c>
       <c r="F123">
-        <v>20.01693602143</v>
+        <v>19.95285228152174</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>19.84595456168931</v>
+        <v>19.82537081839071</v>
       </c>
       <c r="C124">
-        <v>19.61431576085689</v>
+        <v>19.78156233024001</v>
       </c>
       <c r="D124">
-        <v>19.59421373615522</v>
+        <v>19.74003713993174</v>
       </c>
       <c r="E124">
-        <v>20.22320901272053</v>
+        <v>19.40722353030928</v>
       </c>
       <c r="F124">
-        <v>19.90080017068493</v>
+        <v>19.83457862963189</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>19.73394023748689</v>
+        <v>19.70868342419578</v>
       </c>
       <c r="C125">
-        <v>19.49958208478084</v>
+        <v>19.6646365305549</v>
       </c>
       <c r="D125">
-        <v>19.47550457085921</v>
+        <v>19.62341383177286</v>
       </c>
       <c r="E125">
-        <v>20.10082376898344</v>
+        <v>19.29371950318638</v>
       </c>
       <c r="F125">
-        <v>19.78477027256366</v>
+        <v>19.71643716684054</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>19.62197274170293</v>
+        <v>19.59207725987174</v>
       </c>
       <c r="C126">
-        <v>19.38477523075717</v>
+        <v>19.54785297951683</v>
       </c>
       <c r="D126">
-        <v>19.35686395284309</v>
+        <v>19.50694269318312</v>
       </c>
       <c r="E126">
-        <v>19.97845495681719</v>
+        <v>19.18037747251719</v>
       </c>
       <c r="F126">
-        <v>19.66884949407864</v>
+        <v>19.59843031053479</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>19.51005316639969</v>
+        <v>19.47555466640139</v>
       </c>
       <c r="C127">
-        <v>19.26991320611255</v>
+        <v>19.43121310251237</v>
       </c>
       <c r="D127">
-        <v>19.2382951350979</v>
+        <v>19.39062535616461</v>
       </c>
       <c r="E127">
-        <v>19.85611548423937</v>
+        <v>19.06719913604969</v>
       </c>
       <c r="F127">
-        <v>19.55304050037032</v>
+        <v>19.48056013379025</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>19.39818246819773</v>
+        <v>19.35911761938685</v>
       </c>
       <c r="C128">
-        <v>19.15501225218038</v>
+        <v>19.31471811652609</v>
       </c>
       <c r="D128">
-        <v>19.11980093214683</v>
+        <v>19.2744632282042</v>
       </c>
       <c r="E128">
-        <v>19.73381647125881</v>
+        <v>18.95418596247303</v>
       </c>
       <c r="F128">
-        <v>19.43734554647668</v>
+        <v>19.36282835504031</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>19.28636147176237</v>
+        <v>19.24276782790028</v>
       </c>
       <c r="C129">
-        <v>19.04008702388911</v>
+        <v>19.19836907161995</v>
       </c>
       <c r="D129">
-        <v>19.00138394893649</v>
+        <v>19.15845753241765</v>
       </c>
       <c r="E129">
-        <v>19.61156751704542</v>
+        <v>18.841339243138</v>
       </c>
       <c r="F129">
-        <v>19.3217665509626</v>
+        <v>19.24523652888077</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>19.17459090221735</v>
+        <v>19.12650671859735</v>
       </c>
       <c r="C130">
-        <v>18.925150807161</v>
+        <v>19.08216687305471</v>
       </c>
       <c r="D130">
-        <v>18.88304641517449</v>
+        <v>19.04260934988669</v>
       </c>
       <c r="E130">
-        <v>19.48937692197141</v>
+        <v>18.72866011256143</v>
       </c>
       <c r="F130">
-        <v>19.2063051821313</v>
+        <v>19.12778591277935</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>19.06287139563443</v>
+        <v>19.01033559100417</v>
       </c>
       <c r="C131">
-        <v>18.81021559382406</v>
+        <v>18.96611233025008</v>
       </c>
       <c r="D131">
-        <v>18.76479039962985</v>
+        <v>18.92691962702336</v>
       </c>
       <c r="E131">
-        <v>19.36725186869801</v>
+        <v>18.61614957581217</v>
       </c>
       <c r="F131">
-        <v>19.09096282377919</v>
+        <v>19.01047763432582</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>18.95120350727502</v>
+        <v>18.89425549834375</v>
       </c>
       <c r="C132">
-        <v>18.69529238885217</v>
+        <v>18.8502061393057</v>
       </c>
       <c r="D132">
-        <v>18.64661769081547</v>
+        <v>18.8113892202036</v>
       </c>
       <c r="E132">
-        <v>19.24519860166005</v>
+        <v>18.50380854010042</v>
       </c>
       <c r="F132">
-        <v>18.97574075424263</v>
+        <v>18.89331265090231</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>18.83958775212279</v>
+        <v>18.77826742929828</v>
       </c>
       <c r="C133">
-        <v>18.58039109641333</v>
+        <v>18.73444892231469</v>
       </c>
       <c r="D133">
-        <v>18.52852992880725</v>
+        <v>18.69601889136644</v>
       </c>
       <c r="E133">
-        <v>19.12322257802559</v>
+        <v>18.39163783355633</v>
       </c>
       <c r="F133">
-        <v>18.86063999849223</v>
+        <v>18.77629180531671</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>18.72802454204484</v>
+        <v>18.66237218207515</v>
       </c>
       <c r="C134">
-        <v>18.46552084510342</v>
+        <v>18.61884123861231</v>
       </c>
       <c r="D134">
-        <v>18.41052856344293</v>
+        <v>18.5808093313894</v>
       </c>
       <c r="E134">
-        <v>19.00132852608769</v>
+        <v>18.27963822109342</v>
       </c>
       <c r="F134">
-        <v>18.74566151121154</v>
+        <v>18.65941584962152</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>18.61651430716029</v>
+        <v>18.54657049537005</v>
       </c>
       <c r="C135">
-        <v>18.35068989065702</v>
+        <v>18.50338359600071</v>
       </c>
       <c r="D135">
-        <v>18.29261492003277</v>
+        <v>18.46576117688342</v>
       </c>
       <c r="E135">
-        <v>18.87952062160749</v>
+        <v>18.16781041426148</v>
       </c>
       <c r="F135">
-        <v>18.63080608590135</v>
+        <v>18.54268545315593</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.50505739794394</v>
+        <v>18.43086299153891</v>
       </c>
       <c r="C136">
-        <v>18.23590580827356</v>
+        <v>18.38807646193168</v>
       </c>
       <c r="D136">
-        <v>18.17479017749673</v>
+        <v>18.35087501922296</v>
       </c>
       <c r="E136">
-        <v>18.75780248303017</v>
+        <v>18.05615508217435</v>
       </c>
       <c r="F136">
-        <v>18.51607444707498</v>
+        <v>18.42610122244641</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>18.39365412578241</v>
+        <v>18.31525023251469</v>
       </c>
       <c r="C137">
-        <v>18.1211755327691</v>
+        <v>18.27292027459616</v>
       </c>
       <c r="D137">
-        <v>18.05705542701435</v>
+        <v>18.23615141401346</v>
       </c>
       <c r="E137">
-        <v>18.636177276135</v>
+        <v>17.94467285928594</v>
       </c>
       <c r="F137">
-        <v>18.40146723590882</v>
+        <v>18.30966371267044</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>18.28230481120116</v>
+        <v>18.19973271861014</v>
       </c>
       <c r="C138">
-        <v>18.0065054126902</v>
+        <v>18.15791544436985</v>
       </c>
       <c r="D138">
-        <v>17.93941163116131</v>
+        <v>18.1215908904392</v>
       </c>
       <c r="E138">
-        <v>18.51464778730599</v>
+        <v>17.83336435119494</v>
       </c>
       <c r="F138">
-        <v>18.28698503304687</v>
+        <v>18.19337342447489</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>18.17100968747504</v>
+        <v>18.08431089528507</v>
       </c>
       <c r="C139">
-        <v>17.89190130706979</v>
+        <v>18.04306235964473</v>
       </c>
       <c r="D139">
-        <v>17.82185968916587</v>
+        <v>18.0071939546476</v>
       </c>
       <c r="E139">
-        <v>18.39321646032122</v>
+        <v>17.72223014483926</v>
       </c>
       <c r="F139">
-        <v>18.17262837844533</v>
+        <v>18.07723082800608</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>18.05976901540986</v>
+        <v>17.96898517796335</v>
       </c>
       <c r="C140">
-        <v>17.77736859659116</v>
+        <v>17.92836139340768</v>
       </c>
       <c r="D140">
-        <v>17.70440039354498</v>
+        <v>17.89296109306327</v>
       </c>
       <c r="E140">
-        <v>18.27188544694637</v>
+        <v>17.61127080781965</v>
       </c>
       <c r="F140">
-        <v>18.05839775787401</v>
+        <v>17.96123635457829</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>17.94858300458205</v>
+        <v>17.85375593272131</v>
       </c>
       <c r="C141">
-        <v>17.66291226220222</v>
+        <v>17.81381290386916</v>
       </c>
       <c r="D141">
-        <v>17.58703448192822</v>
+        <v>17.7788927795223</v>
       </c>
       <c r="E141">
-        <v>18.15065665606405</v>
+        <v>17.50048690486497</v>
       </c>
       <c r="F141">
-        <v>17.9442936388892</v>
+        <v>17.84539041229932</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>17.83745185510283</v>
+        <v>17.7386235091766</v>
       </c>
       <c r="C142">
-        <v>17.54853690386678</v>
+        <v>17.69941723993593</v>
       </c>
       <c r="D142">
-        <v>17.46976261281919</v>
+        <v>17.66498947603298</v>
       </c>
       <c r="E142">
-        <v>18.02953177001123</v>
+        <v>17.3898789794853</v>
       </c>
       <c r="F142">
-        <v>17.8303164455449</v>
+        <v>17.72969338883195</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>17.72637575249264</v>
+        <v>17.62358821778233</v>
       </c>
       <c r="C143">
-        <v>17.43424677180807</v>
+        <v>17.58517474375628</v>
       </c>
       <c r="D143">
-        <v>17.35258539443184</v>
+        <v>17.5512516374337</v>
       </c>
       <c r="E143">
-        <v>17.9085122736949</v>
+        <v>17.27944758457188</v>
       </c>
       <c r="F143">
-        <v>17.71646658963948</v>
+        <v>17.61414565440286</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>17.61535486705715</v>
+        <v>17.50865035534459</v>
       </c>
       <c r="C144">
-        <v>17.32004582510919</v>
+        <v>17.47108575294693</v>
       </c>
       <c r="D144">
-        <v>17.23550337749686</v>
+        <v>17.43767971396268</v>
       </c>
       <c r="E144">
-        <v>17.78759948822539</v>
+        <v>17.1691932532043</v>
       </c>
       <c r="F144">
-        <v>17.60274445638097</v>
+        <v>17.4987475683088</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>17.5043893614587</v>
+        <v>17.39381019376252</v>
       </c>
       <c r="C145">
-        <v>17.20593772364569</v>
+        <v>17.35715060184673</v>
       </c>
       <c r="D145">
-        <v>17.11851707042266</v>
+        <v>17.32427415339059</v>
       </c>
       <c r="E145">
-        <v>17.66679457903087</v>
+        <v>17.05911652926693</v>
       </c>
       <c r="F145">
-        <v>17.48915041834813</v>
+        <v>17.38349947819039</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>17.39347938452223</v>
+        <v>17.27906799225946</v>
       </c>
       <c r="C146">
-        <v>17.09192588642976</v>
+        <v>17.24336962394745</v>
       </c>
       <c r="D146">
-        <v>17.00162693589087</v>
+        <v>17.2110354021028</v>
       </c>
       <c r="E146">
-        <v>17.54609858143915</v>
+        <v>16.94921794679504</v>
       </c>
       <c r="F146">
-        <v>17.37568483734594</v>
+        <v>17.26840172382324</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>17.28262508444914</v>
+        <v>17.164423996381</v>
       </c>
       <c r="C147">
-        <v>16.97801349469561</v>
+        <v>17.12974315215804</v>
       </c>
       <c r="D147">
-        <v>16.88483340349401</v>
+        <v>17.09796390750778</v>
       </c>
       <c r="E147">
-        <v>17.42551241404752</v>
+        <v>16.83949804654485</v>
       </c>
       <c r="F147">
-        <v>17.26234806847449</v>
+        <v>17.15345463990974</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>17.17182659744398</v>
+        <v>17.04987844130371</v>
       </c>
       <c r="C148">
-        <v>16.86420352414414</v>
+        <v>17.01627152006509</v>
       </c>
       <c r="D148">
-        <v>16.76813686401491</v>
+        <v>16.9850601182925</v>
       </c>
       <c r="E148">
-        <v>17.30503689334439</v>
+        <v>16.72995736934646</v>
       </c>
       <c r="F148">
-        <v>17.14914046154774</v>
+        <v>17.038658555841</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>17.06108405386767</v>
+        <v>16.93543155508804</v>
       </c>
       <c r="C149">
-        <v>16.75049876286689</v>
+        <v>16.90295506465575</v>
       </c>
       <c r="D149">
-        <v>16.6515376819519</v>
+        <v>16.87232448560272</v>
       </c>
       <c r="E149">
-        <v>17.18467276009752</v>
+        <v>16.62059646158873</v>
       </c>
       <c r="F149">
-        <v>17.03606236179379</v>
+        <v>16.92401379931185</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>16.95039758348974</v>
+        <v>16.82108355699501</v>
       </c>
       <c r="C150">
-        <v>16.63690182005076</v>
+        <v>16.78979412377378</v>
       </c>
       <c r="D150">
-        <v>16.5350361898186</v>
+        <v>16.75975746575848</v>
       </c>
       <c r="E150">
-        <v>17.06442064529123</v>
+        <v>16.5114158734152</v>
       </c>
       <c r="F150">
-        <v>16.92311411191123</v>
+        <v>16.80952069680171</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>16.83976730362261</v>
+        <v>16.70683466353783</v>
       </c>
       <c r="C151">
-        <v>16.52341515608286</v>
+        <v>16.67678904221743</v>
       </c>
       <c r="D151">
-        <v>16.41863269797581</v>
+        <v>16.64735951767801</v>
       </c>
       <c r="E151">
-        <v>16.944281166912</v>
+        <v>16.40241616300128</v>
       </c>
       <c r="F151">
-        <v>16.81029605329861</v>
+        <v>16.69517957492834</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>16.72919333428609</v>
+        <v>16.59268508435425</v>
       </c>
       <c r="C152">
-        <v>16.41004107922901</v>
+        <v>16.56394016683587</v>
       </c>
       <c r="D152">
-        <v>16.30232749181581</v>
+        <v>16.53513110883185</v>
       </c>
       <c r="E152">
-        <v>16.82425481868011</v>
+        <v>16.29359789235397</v>
       </c>
       <c r="F152">
-        <v>16.69760852814392</v>
+        <v>16.58099076222619</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>16.61867578832393</v>
+        <v>16.47863502777396</v>
       </c>
       <c r="C153">
-        <v>16.29678177240367</v>
+        <v>16.45124785076525</v>
       </c>
       <c r="D153">
-        <v>16.18612083656036</v>
+        <v>16.42307271089511</v>
       </c>
       <c r="E153">
-        <v>16.70434209042401</v>
+        <v>16.18496163356951</v>
       </c>
       <c r="F153">
-        <v>16.58505188043271</v>
+        <v>16.46695458886519</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>16.50821477682913</v>
+        <v>16.36468469856495</v>
       </c>
       <c r="C154">
-        <v>16.18363929572014</v>
+        <v>16.33871245312999</v>
       </c>
       <c r="D154">
-        <v>16.07001297811518</v>
+        <v>16.31118480291464</v>
       </c>
       <c r="E154">
-        <v>16.58454340813463</v>
+        <v>16.07650796353845</v>
       </c>
       <c r="F154">
-        <v>16.47262645654002</v>
+        <v>16.35307138849087</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>16.39781040875275</v>
+        <v>16.25083430094766</v>
       </c>
       <c r="C155">
-        <v>16.07061560046294</v>
+        <v>16.22633433742417</v>
       </c>
       <c r="D155">
-        <v>15.95400415005129</v>
+        <v>16.19946787228195</v>
       </c>
       <c r="E155">
-        <v>16.46485913339847</v>
+        <v>15.96823746916849</v>
       </c>
       <c r="F155">
-        <v>16.360332605994</v>
+        <v>16.23934149820578</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>16.28746279143639</v>
+        <v>16.13708403830028</v>
       </c>
       <c r="C156">
-        <v>15.95771254060233</v>
+        <v>16.1141138755387</v>
       </c>
       <c r="D156">
-        <v>15.83809456526521</v>
+        <v>16.08792241211644</v>
       </c>
       <c r="E156">
-        <v>16.34528962038506</v>
+        <v>15.86015074472495</v>
       </c>
       <c r="F156">
-        <v>16.24817068240197</v>
+        <v>16.12576525949193</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>16.17717203120326</v>
+        <v>16.02343411443696</v>
       </c>
       <c r="C157">
-        <v>15.84493187611746</v>
+        <v>16.00205144458241</v>
       </c>
       <c r="D157">
-        <v>15.72228442392144</v>
+        <v>15.97654892592377</v>
       </c>
       <c r="E157">
-        <v>16.22583516011238</v>
+        <v>15.75224839375255</v>
       </c>
       <c r="F157">
-        <v>16.13614104411057</v>
+        <v>16.0123430189592</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>16.066938232996</v>
+        <v>15.9098847340284</v>
       </c>
       <c r="C158">
-        <v>15.73227528755321</v>
+        <v>15.89014742998382</v>
       </c>
       <c r="D158">
-        <v>15.60657392372761</v>
+        <v>15.86534792414903</v>
       </c>
       <c r="E158">
-        <v>16.10649603134134</v>
+        <v>15.64453102917354</v>
       </c>
       <c r="F158">
-        <v>16.02424405469382</v>
+        <v>15.89907512863162</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>15.95676150249626</v>
+        <v>15.79643610306268</v>
       </c>
       <c r="C159">
-        <v>15.61974437689611</v>
+        <v>15.77840222432031</v>
       </c>
       <c r="D159">
-        <v>15.49096323996853</v>
+        <v>15.75431992735396</v>
       </c>
       <c r="E159">
-        <v>15.98727247718936</v>
+        <v>15.53699927371727</v>
       </c>
       <c r="F159">
-        <v>15.912480083518</v>
+        <v>15.785961946673</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>15.84664194423223</v>
+        <v>15.6830884296299</v>
       </c>
       <c r="C160">
-        <v>15.50734067608892</v>
+        <v>15.66681622845212</v>
       </c>
       <c r="D160">
-        <v>15.37545253895138</v>
+        <v>15.64346546510417</v>
       </c>
       <c r="E160">
-        <v>15.8681647204893</v>
+        <v>15.42965376024882</v>
       </c>
       <c r="F160">
-        <v>15.80084950623495</v>
+        <v>15.67300383776975</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>15.73657966291412</v>
+        <v>15.56984192379893</v>
       </c>
       <c r="C161">
-        <v>15.39506565500449</v>
+        <v>15.55538985144896</v>
       </c>
       <c r="D161">
-        <v>15.26004198954424</v>
+        <v>15.53278507703063</v>
       </c>
       <c r="E161">
-        <v>15.74917296352439</v>
+        <v>15.32249513226868</v>
       </c>
       <c r="F161">
-        <v>15.68935270521109</v>
+        <v>15.56020117328557</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>15.62657476426485</v>
+        <v>15.45669679872912</v>
       </c>
       <c r="C162">
-        <v>15.28292073200108</v>
+        <v>15.44412351121581</v>
       </c>
       <c r="D162">
-        <v>15.14473174074265</v>
+        <v>15.42227931290692</v>
       </c>
       <c r="E162">
-        <v>15.6302973875832</v>
+        <v>15.21552404404899</v>
       </c>
       <c r="F162">
-        <v>15.57799006995263</v>
+        <v>15.44755433242143</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>15.51662735316042</v>
+        <v>15.34365327038791</v>
       </c>
       <c r="C163">
-        <v>15.17090725617948</v>
+        <v>15.33301763460896</v>
       </c>
       <c r="D163">
-        <v>15.0295219349852</v>
+        <v>15.31194873312466</v>
       </c>
       <c r="E163">
-        <v>15.51153816484485</v>
+        <v>15.10874116093816</v>
       </c>
       <c r="F163">
-        <v>15.46676199749872</v>
+        <v>15.33506370176972</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>15.40673753632421</v>
+        <v>15.2307115584261</v>
       </c>
       <c r="C164">
-        <v>15.05902655284283</v>
+        <v>15.22207265759009</v>
       </c>
       <c r="D164">
-        <v>14.91441271594246</v>
+        <v>15.20179390905468</v>
       </c>
       <c r="E164">
-        <v>15.39289544209556</v>
+        <v>15.0021471598152</v>
       </c>
       <c r="F164">
-        <v>15.35566889280138</v>
+        <v>15.22272967601005</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>15.29690542069753</v>
+        <v>15.11787188620669</v>
       </c>
       <c r="C165">
-        <v>14.94727989170362</v>
+        <v>15.11128902594447</v>
       </c>
       <c r="D165">
-        <v>14.79940421465353</v>
+        <v>15.09181542298838</v>
       </c>
       <c r="E165">
-        <v>15.27436936426859</v>
+        <v>14.89574272904011</v>
       </c>
       <c r="F165">
-        <v>15.24471116909014</v>
+        <v>15.11055265903185</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>15.1871311145227</v>
+        <v>15.0051344813454</v>
       </c>
       <c r="C166">
-        <v>14.83566849641085</v>
+        <v>15.00066719490004</v>
       </c>
       <c r="D166">
-        <v>14.68449655749918</v>
+        <v>14.98201386908291</v>
       </c>
       <c r="E166">
-        <v>15.15596005747475</v>
+        <v>14.78952856911063</v>
       </c>
       <c r="F166">
-        <v>15.13388924821323</v>
+        <v>14.99853306222019</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>15.07741472731466</v>
+        <v>14.8924995758643</v>
       </c>
       <c r="C167">
-        <v>14.72419357694508</v>
+        <v>14.8902076300543</v>
       </c>
       <c r="D167">
-        <v>14.56968986950661</v>
+        <v>14.87238985288241</v>
       </c>
       <c r="E167">
-        <v>15.0376676387653</v>
+        <v>14.68350539265372</v>
       </c>
       <c r="F167">
-        <v>15.02320356092837</v>
+        <v>14.8866713074205</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>14.96775637006753</v>
+        <v>14.77996740658993</v>
       </c>
       <c r="C168">
-        <v>14.61285628306313</v>
+        <v>14.77991080721356</v>
       </c>
       <c r="D168">
-        <v>14.4549842694004</v>
+        <v>14.76294399230637</v>
       </c>
       <c r="E168">
-        <v>14.91949221792336</v>
+        <v>14.57767392488654</v>
       </c>
       <c r="F168">
-        <v>14.91265454709163</v>
+        <v>14.77496782524738</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>14.85815615546305</v>
+        <v>14.66753821535179</v>
       </c>
       <c r="C169">
-        <v>14.5016577561418</v>
+        <v>14.66977721286868</v>
       </c>
       <c r="D169">
-        <v>14.34037987303263</v>
+        <v>14.65367691754169</v>
       </c>
       <c r="E169">
-        <v>14.80143389332953</v>
+        <v>14.47203490387024</v>
       </c>
       <c r="F169">
-        <v>14.80224265572359</v>
+        <v>14.66342305601938</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>14.74861419785622</v>
+        <v>14.55521224927967</v>
       </c>
       <c r="C170">
-        <v>14.39059910582135</v>
+        <v>14.55980734449883</v>
       </c>
       <c r="D170">
-        <v>14.22587679471452</v>
+        <v>14.54458927148786</v>
       </c>
       <c r="E170">
-        <v>14.68349275913167</v>
+        <v>14.36658908075528</v>
       </c>
       <c r="F170">
-        <v>14.69196834506951</v>
+        <v>14.55203745051078</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>14.6391306137888</v>
+        <v>14.4429897610796</v>
       </c>
       <c r="C171">
-        <v>14.27968141066751</v>
+        <v>14.45000171079227</v>
       </c>
       <c r="D171">
-        <v>14.11147514487613</v>
+        <v>14.435681710102</v>
       </c>
       <c r="E171">
-        <v>14.56566890149395</v>
+        <v>14.26133722012655</v>
       </c>
       <c r="F171">
-        <v>14.58183208285679</v>
+        <v>14.4408114696102</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>14.5297055216978</v>
+        <v>14.33087100921232</v>
       </c>
       <c r="C172">
-        <v>14.16890573783118</v>
+        <v>14.34036083198544</v>
       </c>
       <c r="D172">
-        <v>13.99717503277037</v>
+        <v>14.32695490270333</v>
       </c>
       <c r="E172">
-        <v>14.44796240288102</v>
+        <v>14.15628010025451</v>
       </c>
       <c r="F172">
-        <v>14.4718343467719</v>
+        <v>14.32974558508663</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>14.42033904228321</v>
+        <v>14.2188562583064</v>
       </c>
       <c r="C173">
-        <v>14.05827313064</v>
+        <v>14.2308852401947</v>
       </c>
       <c r="D173">
-        <v>13.88297656757056</v>
+        <v>14.2184095322413</v>
       </c>
       <c r="E173">
-        <v>14.33037334046017</v>
+        <v>14.05141851336569</v>
       </c>
       <c r="F173">
-        <v>14.36197562498709</v>
+        <v>14.21884027980196</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>14.31103129871502</v>
+        <v>14.10694577932473</v>
       </c>
       <c r="C174">
-        <v>13.94778461813635</v>
+        <v>14.12157547964397</v>
       </c>
       <c r="D174">
-        <v>13.76887985506444</v>
+        <v>14.11004629574074</v>
       </c>
       <c r="E174">
-        <v>14.21290178793664</v>
+        <v>13.94675326597066</v>
       </c>
       <c r="F174">
-        <v>14.25225641661655</v>
+        <v>14.10809604803038</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>14.20178241643117</v>
+        <v>13.99513984970952</v>
       </c>
       <c r="C175">
-        <v>13.83744121738049</v>
+        <v>14.01243210705084</v>
       </c>
       <c r="D175">
-        <v>13.65488500115759</v>
+        <v>14.00186590449382</v>
       </c>
       <c r="E175">
-        <v>14.09554781672369</v>
+        <v>13.84228517911438</v>
       </c>
       <c r="F175">
-        <v>14.14267723209508</v>
+        <v>13.99751339576329</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>14.09259252366964</v>
+        <v>13.8834387539536</v>
       </c>
       <c r="C176">
-        <v>13.72724392909459</v>
+        <v>13.90345569186208</v>
       </c>
       <c r="D176">
-        <v>13.54099211277452</v>
+        <v>13.89386908451731</v>
       </c>
       <c r="E176">
-        <v>13.97831149390623</v>
+        <v>13.73801508868227</v>
       </c>
       <c r="F176">
-        <v>14.03323859351261</v>
+        <v>13.88709284116507</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>13.98346175132709</v>
+        <v>13.77184278355869</v>
       </c>
       <c r="C177">
-        <v>13.61719374986787</v>
+        <v>13.79464681667931</v>
       </c>
       <c r="D177">
-        <v>13.42720129455258</v>
+        <v>13.78605657678312</v>
       </c>
       <c r="E177">
-        <v>13.86119288677703</v>
+        <v>13.63394384574277</v>
       </c>
       <c r="F177">
-        <v>13.92394103493183</v>
+        <v>13.77683491477102</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>13.87439023320167</v>
+        <v>13.66035223733088</v>
       </c>
       <c r="C178">
-        <v>13.50729166505827</v>
+        <v>13.68600607744304</v>
       </c>
       <c r="D178">
-        <v>13.31351265199709</v>
+        <v>13.67842913767413</v>
       </c>
       <c r="E178">
-        <v>13.74419205883875</v>
+        <v>13.5300723167671</v>
       </c>
       <c r="F178">
-        <v>13.81478510270332</v>
+        <v>13.66674015993274</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>13.76537810611765</v>
+        <v>13.54896742185242</v>
       </c>
       <c r="C179">
-        <v>13.39753865244877</v>
+        <v>13.57753408395078</v>
       </c>
       <c r="D179">
-        <v>13.19992629197724</v>
+        <v>13.57098753923805</v>
       </c>
       <c r="E179">
-        <v>13.62730907402394</v>
+        <v>13.42640138407047</v>
       </c>
       <c r="F179">
-        <v>13.70577135578544</v>
+        <v>13.55680913311447</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>13.65642551007117</v>
+        <v>13.43768865151417</v>
       </c>
       <c r="C180">
-        <v>13.28793568943246</v>
+        <v>13.46923146004454</v>
       </c>
       <c r="D180">
-        <v>13.08644232096488</v>
+        <v>13.46373256961997</v>
       </c>
       <c r="E180">
-        <v>13.51054399494513</v>
+        <v>13.32293194598554</v>
       </c>
       <c r="F180">
-        <v>13.59690036607208</v>
+        <v>13.44704240425541</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>13.54753258832845</v>
+        <v>13.32651624887273</v>
       </c>
       <c r="C181">
-        <v>13.17848374381253</v>
+        <v>13.3610988440636</v>
       </c>
       <c r="D181">
-        <v>12.97306084680233</v>
+        <v>13.35666503344938</v>
       </c>
       <c r="E181">
-        <v>13.39389688369298</v>
+        <v>13.21966491733399</v>
       </c>
       <c r="F181">
-        <v>13.48817271873019</v>
+        <v>13.33744055724251</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13.43869948761223</v>
+        <v>13.2154505449105</v>
       </c>
       <c r="C182">
-        <v>13.06918378647324</v>
+        <v>13.25313688923377</v>
       </c>
       <c r="D182">
-        <v>12.85978197897978</v>
+        <v>13.24978575211083</v>
       </c>
       <c r="E182">
-        <v>13.27736780290415</v>
+        <v>13.11660122962252</v>
       </c>
       <c r="F182">
-        <v>13.37958901254707</v>
+        <v>13.22800419004941</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>13.32992635820082</v>
+        <v>13.10449187950175</v>
       </c>
       <c r="C183">
-        <v>12.96003678618553</v>
+        <v>13.14534626391202</v>
       </c>
       <c r="D183">
-        <v>12.74660582819367</v>
+        <v>13.14309556435743</v>
       </c>
       <c r="E183">
-        <v>13.16095681521982</v>
+        <v>13.01374183149307</v>
       </c>
       <c r="F183">
-        <v>13.27114986028977</v>
+        <v>13.11873391546457</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>13.22121335408603</v>
+        <v>12.99364060133352</v>
       </c>
       <c r="C184">
-        <v>12.85104371090394</v>
+        <v>13.03772765220821</v>
       </c>
       <c r="D184">
-        <v>12.63353250714202</v>
+        <v>13.03659532640877</v>
       </c>
       <c r="E184">
-        <v>13.04466398451914</v>
+        <v>12.91108768897322</v>
       </c>
       <c r="F184">
-        <v>13.16285588907554</v>
+        <v>13.00963036121229</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>13.11256063310454</v>
+        <v>12.88289706847473</v>
       </c>
       <c r="C185">
-        <v>12.74220553304644</v>
+        <v>12.93028175408013</v>
       </c>
       <c r="D185">
-        <v>12.52056213077934</v>
+        <v>12.93028591272904</v>
       </c>
       <c r="E185">
-        <v>12.92848937538369</v>
+        <v>12.80863978589976</v>
       </c>
       <c r="F185">
-        <v>13.05470774075412</v>
+        <v>12.90069417041899</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>13.00396835708632</v>
+        <v>12.77226164886924</v>
       </c>
       <c r="C186">
-        <v>12.63352322684797</v>
+        <v>12.82300928610662</v>
       </c>
       <c r="D186">
-        <v>12.4076948161543</v>
+        <v>12.82416821607075</v>
       </c>
       <c r="E186">
-        <v>12.81243305414938</v>
+        <v>12.70639912421912</v>
       </c>
       <c r="F186">
-        <v>12.94670607230316</v>
+        <v>12.79192600233201</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>12.89543669202474</v>
+        <v>12.66173472008166</v>
       </c>
       <c r="C187">
-        <v>12.52499777179736</v>
+        <v>12.71591098152239</v>
       </c>
       <c r="D187">
-        <v>12.29493068311882</v>
+        <v>12.71824314823213</v>
       </c>
       <c r="E187">
-        <v>12.69649508877492</v>
+        <v>12.6043667243926</v>
       </c>
       <c r="F187">
-        <v>12.83885155623515</v>
+        <v>12.68332653220002</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>12.78696580816032</v>
+        <v>12.55131667016367</v>
       </c>
       <c r="C188">
-        <v>12.41663015364173</v>
+        <v>12.60898759102425</v>
       </c>
       <c r="D188">
-        <v>12.18226985453636</v>
+        <v>12.61251164030334</v>
       </c>
       <c r="E188">
-        <v>12.58067554901829</v>
+        <v>12.50254362575082</v>
       </c>
       <c r="F188">
-        <v>12.73114488101996</v>
+        <v>12.57489645234884</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>12.67855588027334</v>
+        <v>12.44100789791108</v>
       </c>
       <c r="C189">
-        <v>12.30842136379539</v>
+        <v>12.50223988293409</v>
       </c>
       <c r="D189">
-        <v>12.06971245599994</v>
+        <v>12.50697464317819</v>
       </c>
       <c r="E189">
-        <v>12.4649745072486</v>
+        <v>12.40093088687148</v>
       </c>
       <c r="F189">
-        <v>12.62358675152132</v>
+        <v>12.46663647217335</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>12.57020708767919</v>
+        <v>12.33080881278398</v>
       </c>
       <c r="C190">
-        <v>12.20037240334974</v>
+        <v>12.39566864382112</v>
       </c>
       <c r="D190">
-        <v>11.95725861667109</v>
+        <v>12.40163312811712</v>
       </c>
       <c r="E190">
-        <v>12.3493920379512</v>
+        <v>12.29952958599753</v>
       </c>
       <c r="F190">
-        <v>12.51617788944619</v>
+        <v>12.35854731876193</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.46191961452129</v>
+        <v>12.22071983595949</v>
       </c>
       <c r="C191">
-        <v>12.09248428173594</v>
+        <v>12.28927467898747</v>
       </c>
       <c r="D191">
-        <v>11.84490846940944</v>
+        <v>12.29648808700467</v>
       </c>
       <c r="E191">
-        <v>12.23392821872506</v>
+        <v>12.19834082138368</v>
       </c>
       <c r="F191">
-        <v>12.40891903381034</v>
+        <v>12.25062973766719</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>12.3536936499365</v>
+        <v>12.11074140017644</v>
       </c>
       <c r="C192">
-        <v>11.98475801846232</v>
+        <v>12.18305881279576</v>
       </c>
       <c r="D192">
-        <v>11.73266215065332</v>
+        <v>12.19154053319043</v>
       </c>
       <c r="E192">
-        <v>12.11858313002856</v>
+        <v>12.09736571177718</v>
       </c>
       <c r="F192">
-        <v>12.30181094142007</v>
+        <v>12.14288449280278</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>12.24552938812073</v>
+        <v>12.00087395009513</v>
       </c>
       <c r="C193">
-        <v>11.87719464535031</v>
+        <v>12.07702188948998</v>
       </c>
       <c r="D193">
-        <v>11.62051980103178</v>
+        <v>12.08679150156003</v>
       </c>
       <c r="E193">
-        <v>12.00335685566713</v>
+        <v>11.99660539673962</v>
       </c>
       <c r="F193">
-        <v>12.19485438737023</v>
+        <v>12.03531236773161</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>12.13742702872651</v>
+        <v>11.89111794350278</v>
       </c>
       <c r="C194">
-        <v>11.76979520532881</v>
+        <v>11.97116477329187</v>
       </c>
       <c r="D194">
-        <v>11.5084815655175</v>
+        <v>11.98224204957577</v>
       </c>
       <c r="E194">
-        <v>11.88824948302563</v>
+        <v>11.89606103718509</v>
       </c>
       <c r="F194">
-        <v>12.08805016555866</v>
+        <v>11.92791416554265</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>12.02938677679107</v>
+        <v>11.78147385051588</v>
       </c>
       <c r="C195">
-        <v>11.66256075579076</v>
+        <v>11.86548834947162</v>
       </c>
       <c r="D195">
-        <v>11.39654759371495</v>
+        <v>11.8778932572836</v>
       </c>
       <c r="E195">
-        <v>11.77326110327019</v>
+        <v>11.79573381572222</v>
       </c>
       <c r="F195">
-        <v>11.98139908921928</v>
+        <v>11.8206907097141</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.92140884317964</v>
+        <v>11.67194215479699</v>
       </c>
       <c r="C196">
-        <v>11.55549236829438</v>
+        <v>11.75999352432644</v>
       </c>
       <c r="D196">
-        <v>11.28471804000433</v>
+        <v>11.77374622830052</v>
       </c>
       <c r="E196">
-        <v>11.65839181167389</v>
+        <v>11.69562493726476</v>
       </c>
       <c r="F196">
-        <v>11.87490199147355</v>
+        <v>11.71364284495974</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.81349344464309</v>
+        <v>11.56252335433882</v>
       </c>
       <c r="C197">
-        <v>11.44859112966704</v>
+        <v>11.6546812263218</v>
       </c>
       <c r="D197">
-        <v>11.17299306383149</v>
+        <v>11.66980209016306</v>
       </c>
       <c r="E197">
-        <v>11.54364170781801</v>
+        <v>11.59573562909454</v>
       </c>
       <c r="F197">
-        <v>11.76855972590081</v>
+        <v>11.60677143707805</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.70564080404324</v>
+        <v>11.45321796076145</v>
       </c>
       <c r="C198">
-        <v>11.34185814366283</v>
+        <v>11.5495524062371</v>
       </c>
       <c r="D198">
-        <v>11.06137283032123</v>
+        <v>11.56606199490955</v>
       </c>
       <c r="E198">
-        <v>11.42901089589066</v>
+        <v>11.4960671416347</v>
       </c>
       <c r="F198">
-        <v>11.66237316712891</v>
+        <v>11.50007737459603</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.59785115072582</v>
+        <v>11.34402650088156</v>
       </c>
       <c r="C199">
-        <v>11.23529453148672</v>
+        <v>11.44460803804722</v>
       </c>
       <c r="D199">
-        <v>10.94985751006349</v>
+        <v>11.46252711989095</v>
       </c>
       <c r="E199">
-        <v>11.31449948493288</v>
+        <v>11.39662074938661</v>
       </c>
       <c r="F199">
-        <v>11.55634321144591</v>
+        <v>11.39356156843473</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.49012472046118</v>
+        <v>11.2349495170783</v>
       </c>
       <c r="C200">
-        <v>11.12890143304839</v>
+        <v>11.33984911953522</v>
       </c>
       <c r="D200">
-        <v>10.8384472795498</v>
+        <v>11.35919866801547</v>
       </c>
       <c r="E200">
-        <v>11.20010758909804</v>
+        <v>11.29739775005335</v>
       </c>
       <c r="F200">
-        <v>11.45047077743383</v>
+        <v>11.28722495311311</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.38246175609029</v>
+        <v>11.12598756694968</v>
       </c>
       <c r="C201">
-        <v>11.02268000800144</v>
+        <v>11.23527667274418</v>
       </c>
       <c r="D201">
-        <v>10.7271423219473</v>
+        <v>11.25607786890506</v>
       </c>
       <c r="E201">
-        <v>11.08583532793326</v>
+        <v>11.19839946598092</v>
       </c>
       <c r="F201">
-        <v>11.34475680662388</v>
+        <v>11.18106848763702</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.27486250734334</v>
+        <v>11.01714122523818</v>
       </c>
       <c r="C202">
-        <v>10.91663143683058</v>
+        <v>11.13089174507021</v>
       </c>
       <c r="D202">
-        <v>10.61594282670513</v>
+        <v>11.15316597893336</v>
       </c>
       <c r="E202">
-        <v>10.9716828266936</v>
+        <v>11.09962724572043</v>
       </c>
       <c r="F202">
-        <v>11.23920226417669</v>
+        <v>11.07509315535476</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.16732723141563</v>
+        <v>10.90841108339293</v>
       </c>
       <c r="C203">
-        <v>10.81075692180556</v>
+        <v>11.02669540938352</v>
       </c>
       <c r="D203">
-        <v>10.50484899010327</v>
+        <v>11.05046428258016</v>
       </c>
       <c r="E203">
-        <v>10.85765021651505</v>
+        <v>11.00108246194858</v>
       </c>
       <c r="F203">
-        <v>11.13380813958676</v>
+        <v>10.96929996597861</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.05985619318846</v>
+        <v>10.79979775007539</v>
       </c>
       <c r="C204">
-        <v>10.70505768825241</v>
+        <v>10.92268876548339</v>
       </c>
       <c r="D204">
-        <v>10.39386101617072</v>
+        <v>10.94797409247934</v>
       </c>
       <c r="E204">
-        <v>10.74373763493532</v>
+        <v>10.9027665136438</v>
       </c>
       <c r="F204">
-        <v>11.02857544741239</v>
+        <v>10.86368995500711</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>10.95244966530784</v>
+        <v>10.69130185334518</v>
       </c>
       <c r="C205">
-        <v>10.59953498555589</v>
+        <v>10.8188729400354</v>
       </c>
       <c r="D205">
-        <v>10.2829791161072</v>
+        <v>10.84569675061497</v>
       </c>
       <c r="E205">
-        <v>10.6299452259032</v>
+        <v>10.80468082770401</v>
       </c>
       <c r="F205">
-        <v>10.92350522803215</v>
+        <v>10.7582641853759</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>10.84510792890568</v>
+        <v>10.58292403901805</v>
       </c>
       <c r="C206">
-        <v>10.49419008810016</v>
+        <v>10.7152490885654</v>
       </c>
       <c r="D206">
-        <v>10.17220350897158</v>
+        <v>10.74363362887288</v>
       </c>
       <c r="E206">
-        <v>10.51627314035747</v>
+        <v>10.70682685690169</v>
       </c>
       <c r="F206">
-        <v>10.81859854843</v>
+        <v>10.65302374835547</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>10.73783127336853</v>
+        <v>10.47466497280338</v>
       </c>
       <c r="C207">
-        <v>10.38902429706382</v>
+        <v>10.61181839478488</v>
       </c>
       <c r="D207">
-        <v>10.06153442283512</v>
+        <v>10.64178612983131</v>
       </c>
       <c r="E207">
-        <v>10.40272153645006</v>
+        <v>10.60920608191609</v>
       </c>
       <c r="F207">
-        <v>10.71385650300964</v>
+        <v>10.54796976345075</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>10.6306199971909</v>
+        <v>10.36652534162571</v>
       </c>
       <c r="C208">
-        <v>10.28403894060622</v>
+        <v>10.5085820717534</v>
       </c>
       <c r="D208">
-        <v>9.950972093880562</v>
+        <v>10.5401556879226</v>
       </c>
       <c r="E208">
-        <v>10.28929057979654</v>
+        <v>10.51182001259365</v>
       </c>
       <c r="F208">
-        <v>10.60928021443799</v>
+        <v>10.44310338086968</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>10.52347440797249</v>
+        <v>10.25850585224873</v>
       </c>
       <c r="C209">
-        <v>10.17923537580179</v>
+        <v>10.40554136399139</v>
       </c>
       <c r="D209">
-        <v>9.840516767321922</v>
+        <v>10.43874376904351</v>
       </c>
       <c r="E209">
-        <v>10.17598044412033</v>
+        <v>10.41467018718043</v>
       </c>
       <c r="F209">
-        <v>10.50487083452168</v>
+        <v>10.33842578065884</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>10.41639482295447</v>
+        <v>10.15060723398193</v>
       </c>
       <c r="C210">
-        <v>10.07461498996576</v>
+        <v>10.30269754804448</v>
       </c>
       <c r="D210">
-        <v>9.730168698860391</v>
+        <v>10.33755187195732</v>
       </c>
       <c r="E210">
-        <v>10.06279131116899</v>
+        <v>10.31775817317762</v>
       </c>
       <c r="F210">
-        <v>10.40062954511649</v>
+        <v>10.23393817490347</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>10.30938156970977</v>
+        <v>10.04283023927868</v>
       </c>
       <c r="C211">
-        <v>9.97017920090506</v>
+        <v>10.20005193044063</v>
       </c>
       <c r="D211">
-        <v>9.619928153347745</v>
+        <v>10.23658153198505</v>
       </c>
       <c r="E211">
-        <v>9.949723371671471</v>
+        <v>10.22108556886867</v>
       </c>
       <c r="F211">
-        <v>10.29655755907146</v>
+        <v>10.12964180862283</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>10.20243498544276</v>
+        <v>9.935175642995484</v>
       </c>
       <c r="C212">
-        <v>9.865929459723416</v>
+        <v>10.09760585144517</v>
       </c>
       <c r="D212">
-        <v>9.509795406029919</v>
+        <v>10.13583431599621</v>
       </c>
       <c r="E212">
-        <v>9.836776825160756</v>
+        <v>10.12465400326382</v>
       </c>
       <c r="F212">
-        <v>10.19265612120795</v>
+        <v>10.02553795976204</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>10.09555541796628</v>
+        <v>9.827644245732602</v>
       </c>
       <c r="C213">
-        <v>9.76186725077398</v>
+        <v>9.995360690065354</v>
       </c>
       <c r="D213">
-        <v>9.399770744324941</v>
+        <v>10.03531182693886</v>
       </c>
       <c r="E213">
-        <v>9.723951880803639</v>
+        <v>10.02846513622468</v>
       </c>
       <c r="F213">
-        <v>10.08892650933814</v>
+        <v>9.921627942122099</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>9.988743228027094</v>
+        <v>9.720236873019189</v>
       </c>
       <c r="C214">
-        <v>9.657994093438781</v>
+        <v>9.893317854973631</v>
       </c>
       <c r="D214">
-        <v>9.289854465996653</v>
+        <v>9.935015706198897</v>
       </c>
       <c r="E214">
-        <v>9.611248757782434</v>
+        <v>9.932520660225423</v>
       </c>
       <c r="F214">
-        <v>9.98537003532263</v>
+        <v>9.817913104291865</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>9.881998786494046</v>
+        <v>9.61295437604538</v>
       </c>
       <c r="C215">
-        <v>9.554311544586753</v>
+        <v>9.791478792275829</v>
       </c>
       <c r="D215">
-        <v>9.180046880793444</v>
+        <v>9.834947633065397</v>
       </c>
       <c r="E215">
-        <v>9.498667685534917</v>
+        <v>9.836822300847187</v>
       </c>
       <c r="F215">
-        <v>9.881988046168399</v>
+        <v>9.71439483240014</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>9.775322475714294</v>
+        <v>9.505797635563049</v>
       </c>
       <c r="C216">
-        <v>9.450821197882036</v>
+        <v>9.689844988857306</v>
       </c>
       <c r="D216">
-        <v>9.07034831257789</v>
+        <v>9.735109322560628</v>
       </c>
       <c r="E216">
-        <v>9.386208905126644</v>
+        <v>9.741371816225465</v>
       </c>
       <c r="F216">
-        <v>9.778781925170334</v>
+        <v>9.611074551039438</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>9.668714691123244</v>
+        <v>9.398767558791146</v>
       </c>
       <c r="C217">
-        <v>9.347524687327818</v>
+        <v>9.588417968636078</v>
       </c>
       <c r="D217">
-        <v>8.960759096937604</v>
+        <v>9.63550253024691</v>
       </c>
       <c r="E217">
-        <v>9.273872668054661</v>
+        <v>9.646170999100914</v>
       </c>
       <c r="F217">
-        <v>9.675753093098409</v>
+        <v>9.507953723406267</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>9.562175844518704</v>
+        <v>9.291865083169638</v>
       </c>
       <c r="C218">
-        <v>9.244423687944391</v>
+        <v>9.487199293363865</v>
       </c>
       <c r="D218">
-        <v>8.851279583307562</v>
+        <v>9.536129056518099</v>
       </c>
       <c r="E218">
-        <v>9.161659237600125</v>
+        <v>9.55122167788357</v>
       </c>
       <c r="F218">
-        <v>9.572903009432402</v>
+        <v>9.405033854771878</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>9.455706356772184</v>
+        <v>9.185091178705722</v>
       </c>
       <c r="C219">
-        <v>9.141519916497884</v>
+        <v>9.386190567422821</v>
       </c>
       <c r="D219">
-        <v>8.741910137528633</v>
+        <v>9.436990738285598</v>
       </c>
       <c r="E219">
-        <v>9.049568891295326</v>
+        <v>9.456525715356486</v>
       </c>
       <c r="F219">
-        <v>9.470233173643461</v>
+        <v>9.302316491170048</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>9.349306663993787</v>
+        <v>9.078446845311523</v>
       </c>
       <c r="C220">
-        <v>9.038815135763226</v>
+        <v>9.285393440469242</v>
       </c>
       <c r="D220">
-        <v>8.632651138741487</v>
+        <v>9.338089456497215</v>
       </c>
       <c r="E220">
-        <v>8.937601918875119</v>
+        <v>9.362085011036534</v>
       </c>
       <c r="F220">
-        <v>9.367745126530302</v>
+        <v>9.199803222858932</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>9.242977219643254</v>
+        <v>8.97193311763014</v>
       </c>
       <c r="C221">
-        <v>8.936311152723546</v>
+        <v>9.184809601067526</v>
       </c>
       <c r="D221">
-        <v>8.523502982137709</v>
+        <v>9.239427138686059</v>
       </c>
       <c r="E221">
-        <v>8.825758622284678</v>
+        <v>9.267901502740161</v>
       </c>
       <c r="F221">
-        <v>9.265440451608482</v>
+        <v>9.097495685231406</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>9.136718492429853</v>
+        <v>8.865551066089248</v>
       </c>
       <c r="C222">
-        <v>8.83400982284466</v>
+        <v>9.084440783646411</v>
       </c>
       <c r="D222">
-        <v>8.41446608206015</v>
+        <v>9.141005756432877</v>
       </c>
       <c r="E222">
-        <v>8.714039318385369</v>
+        <v>9.173977164729585</v>
       </c>
       <c r="F222">
-        <v>9.163320776556072</v>
+        <v>8.995395559351373</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>9.030530964627122</v>
+        <v>8.759301795341552</v>
       </c>
       <c r="C223">
-        <v>8.731913051954871</v>
+        <v>8.984288773754191</v>
       </c>
       <c r="D223">
-        <v>8.305540867948338</v>
+        <v>9.042827326134592</v>
       </c>
       <c r="E223">
-        <v>8.60244434384655</v>
+        <v>9.080314010255655</v>
       </c>
       <c r="F223">
-        <v>9.06138777471771</v>
+        <v>8.893504577347878</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>8.924415136088626</v>
+        <v>8.653186450314545</v>
       </c>
       <c r="C224">
-        <v>8.630022795628287</v>
+        <v>8.884355399831637</v>
       </c>
       <c r="D224">
-        <v>8.196727787930151</v>
+        <v>8.944893912998076</v>
       </c>
       <c r="E224">
-        <v>8.49097404489244</v>
+        <v>8.986914093537782</v>
       </c>
       <c r="F224">
-        <v>8.959643166672707</v>
+        <v>8.791824517409463</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>8.818371529656009</v>
+        <v>8.547206214671792</v>
       </c>
       <c r="C225">
-        <v>8.528341064974672</v>
+        <v>8.784642540051687</v>
       </c>
       <c r="D225">
-        <v>8.088027312582955</v>
+        <v>8.8472076339289</v>
       </c>
       <c r="E225">
-        <v>8.379628785661147</v>
+        <v>8.893779507558522</v>
       </c>
       <c r="F225">
-        <v>8.85808872186832</v>
+        <v>8.690357208853415</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8.712400680452756</v>
+        <v>8.441362311892091</v>
       </c>
       <c r="C226">
-        <v>8.42686992517198</v>
+        <v>8.685152125985104</v>
       </c>
       <c r="D226">
-        <v>7.979439929664681</v>
+        <v>8.749770652024987</v>
       </c>
       <c r="E226">
-        <v>8.268408951103465</v>
+        <v>8.800912386790253</v>
       </c>
       <c r="F226">
-        <v>8.756726260318199</v>
+        <v>8.58910453601106</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>8.606503144382721</v>
+        <v>8.335656012569167</v>
       </c>
       <c r="C227">
-        <v>8.325611498914817</v>
+        <v>8.585886142750345</v>
       </c>
       <c r="D227">
-        <v>7.870966148826607</v>
+        <v>8.652585182798802</v>
       </c>
       <c r="E227">
-        <v>8.157314944232356</v>
+        <v>8.70831490901641</v>
       </c>
       <c r="F227">
-        <v>8.655557654375615</v>
+        <v>8.488068443632386</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>8.500679499244431</v>
+        <v>8.230088628366058</v>
       </c>
       <c r="C228">
-        <v>8.224567970718894</v>
+        <v>8.486846625510386</v>
       </c>
       <c r="D228">
-        <v>7.76260650602763</v>
+        <v>8.555653498748422</v>
       </c>
       <c r="E228">
-        <v>8.046347183715316</v>
+        <v>8.615989293929577</v>
       </c>
       <c r="F228">
-        <v>8.554584830580797</v>
+        <v>8.387250922349185</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>8.394930346254455</v>
+        <v>8.124661518937163</v>
       </c>
       <c r="C229">
-        <v>8.123741584632169</v>
+        <v>8.388035666824655</v>
       </c>
       <c r="D229">
-        <v>7.654361557038663</v>
+        <v>8.458977923532522</v>
       </c>
       <c r="E229">
-        <v>7.935506109660555</v>
+        <v>8.523937804960337</v>
       </c>
       <c r="F229">
-        <v>8.453809771587473</v>
+        <v>8.286654023180848</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>8.289256303858236</v>
+        <v>8.019376096340375</v>
       </c>
       <c r="C230">
-        <v>8.023134651185808</v>
+        <v>8.289455423602577</v>
       </c>
       <c r="D230">
-        <v>7.546231883284772</v>
+        <v>8.362560836335591</v>
       </c>
       <c r="E230">
-        <v>7.824792190723962</v>
+        <v>8.432162751356714</v>
       </c>
       <c r="F230">
-        <v>8.353234518168998</v>
+        <v>8.186279866577658</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>8.183658014695984</v>
+        <v>7.914233819665801</v>
       </c>
       <c r="C231">
-        <v>7.922749547762605</v>
+        <v>8.19110810433512</v>
       </c>
       <c r="D231">
-        <v>7.438218097210384</v>
+        <v>8.266404675814634</v>
       </c>
       <c r="E231">
-        <v>7.714205909469197</v>
+        <v>8.34066648771436</v>
       </c>
       <c r="F231">
-        <v>8.252861171315022</v>
+        <v>8.086130636489532</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>8.078136152023625</v>
+        <v>7.809236204127441</v>
       </c>
       <c r="C232">
-        <v>7.822588719716847</v>
+        <v>8.092995980871214</v>
       </c>
       <c r="D232">
-        <v>7.330320834210124</v>
+        <v>8.17051194227879</v>
       </c>
       <c r="E232">
-        <v>7.603747774129615</v>
+        <v>8.249451414693318</v>
       </c>
       <c r="F232">
-        <v>8.152691894418291</v>
+        <v>7.986208570150362</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7.972691409296701</v>
+        <v>7.704384823051901</v>
       </c>
       <c r="C233">
-        <v>7.722654688292323</v>
+        <v>7.995121394379041</v>
       </c>
       <c r="D233">
-        <v>7.222540759909801</v>
+        <v>8.074885192066402</v>
       </c>
       <c r="E233">
-        <v>7.493418321580072</v>
+        <v>8.158519981473878</v>
       </c>
       <c r="F233">
-        <v>8.052728915554711</v>
+        <v>7.886515975085819</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7.867324505963481</v>
+        <v>7.599681304474338</v>
       </c>
       <c r="C234">
-        <v>7.622950046316979</v>
+        <v>7.897486748764596</v>
       </c>
       <c r="D234">
-        <v>7.114878576731996</v>
+        <v>7.979527044981793</v>
       </c>
       <c r="E234">
-        <v>7.383218116462792</v>
+        <v>8.067874686121872</v>
       </c>
       <c r="F234">
-        <v>7.952974529864831</v>
+        <v>7.787055245492725</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7.762036191401084</v>
+        <v>7.495127342789528</v>
       </c>
       <c r="C235">
-        <v>7.523477466395002</v>
+        <v>7.800094513445548</v>
       </c>
       <c r="D235">
-        <v>7.007335013809273</v>
+        <v>7.884440191636949</v>
       </c>
       <c r="E235">
-        <v>7.273147745215297</v>
+        <v>7.977518075322459</v>
       </c>
       <c r="F235">
-        <v>7.85343110204191</v>
+        <v>7.687828835555554</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7.656827251966573</v>
+        <v>7.390724695674595</v>
       </c>
       <c r="C236">
-        <v>7.424239703785458</v>
+        <v>7.702947231265864</v>
       </c>
       <c r="D236">
-        <v>6.899910836126507</v>
+        <v>7.789627381500136</v>
       </c>
       <c r="E236">
-        <v>7.163207824795752</v>
+        <v>7.887452747142698</v>
       </c>
       <c r="F236">
-        <v>7.754101068933735</v>
+        <v>7.58883927120531</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7.551698494570313</v>
+        <v>7.286475185695367</v>
       </c>
       <c r="C237">
-        <v>7.325239594824176</v>
+        <v>7.606047523158804</v>
       </c>
       <c r="D237">
-        <v>6.792606852615956</v>
+        <v>7.695091433533753</v>
       </c>
       <c r="E237">
-        <v>7.053399016078061</v>
+        <v>7.797681352143722</v>
       </c>
       <c r="F237">
-        <v>7.654986942260403</v>
+        <v>7.490089157751703</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7.446650761175812</v>
+        <v>7.182380714840393</v>
       </c>
       <c r="C238">
-        <v>7.226480068002506</v>
+        <v>7.509398076670394</v>
       </c>
       <c r="D238">
-        <v>6.685423903452731</v>
+        <v>7.600835239405011</v>
       </c>
       <c r="E238">
-        <v>6.9437219983112</v>
+        <v>7.708206592314875</v>
       </c>
       <c r="F238">
-        <v>7.556091311449281</v>
+        <v>7.391581204112658</v>
       </c>
     </row>
   </sheetData>
